--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="65">
   <si>
     <t>Id</t>
   </si>
@@ -62,136 +62,160 @@
     <t>斗笠·一阶</t>
   </si>
   <si>
-    <t>斗笠 · 二阶</t>
-  </si>
-  <si>
-    <t>斗笠 · 三阶</t>
-  </si>
-  <si>
-    <t>斗笠 · 四阶</t>
-  </si>
-  <si>
-    <t>斗笠 · 五阶</t>
-  </si>
-  <si>
-    <t>斗笠 · 六阶</t>
-  </si>
-  <si>
-    <t>斗笠 · 七阶</t>
-  </si>
-  <si>
-    <t>斗笠 · 八阶</t>
-  </si>
-  <si>
-    <t>斗笠 · 九阶</t>
-  </si>
-  <si>
-    <t>斗笠 · 十阶</t>
+    <t>斗笠二阶</t>
+  </si>
+  <si>
+    <t>斗笠三阶</t>
+  </si>
+  <si>
+    <t>斗笠四阶</t>
+  </si>
+  <si>
+    <t>斗笠五阶</t>
+  </si>
+  <si>
+    <t>斗笠六阶</t>
+  </si>
+  <si>
+    <t>斗笠七阶</t>
+  </si>
+  <si>
+    <t>斗笠八阶</t>
+  </si>
+  <si>
+    <t>斗笠九阶</t>
+  </si>
+  <si>
+    <t>斗笠十阶</t>
+  </si>
+  <si>
+    <t>斗笠十一阶</t>
+  </si>
+  <si>
+    <t>斗笠十二阶</t>
   </si>
   <si>
     <t>护盾</t>
   </si>
   <si>
-    <t>护盾 · 一阶</t>
-  </si>
-  <si>
-    <t>护盾 · 二阶</t>
-  </si>
-  <si>
-    <t>护盾 · 三阶</t>
-  </si>
-  <si>
-    <t>护盾 · 四阶</t>
-  </si>
-  <si>
-    <t>护盾 · 五阶</t>
-  </si>
-  <si>
-    <t>护盾 · 六阶</t>
-  </si>
-  <si>
-    <t>护盾 · 七阶</t>
-  </si>
-  <si>
-    <t>护盾 · 八阶</t>
-  </si>
-  <si>
-    <t>护盾 · 九阶</t>
-  </si>
-  <si>
-    <t>护盾 · 十阶</t>
+    <t>护盾一阶</t>
+  </si>
+  <si>
+    <t>护盾二阶</t>
+  </si>
+  <si>
+    <t>护盾三阶</t>
+  </si>
+  <si>
+    <t>护盾四阶</t>
+  </si>
+  <si>
+    <t>护盾五阶</t>
+  </si>
+  <si>
+    <t>护盾六阶</t>
+  </si>
+  <si>
+    <t>护盾七阶</t>
+  </si>
+  <si>
+    <t>护盾八阶</t>
+  </si>
+  <si>
+    <t>护盾九阶</t>
+  </si>
+  <si>
+    <t>护盾十阶</t>
+  </si>
+  <si>
+    <t>护盾十一阶</t>
+  </si>
+  <si>
+    <t>护盾十二阶</t>
   </si>
   <si>
     <t>神符</t>
   </si>
   <si>
-    <t>神符 · 一阶</t>
-  </si>
-  <si>
-    <t>神符 · 二阶</t>
-  </si>
-  <si>
-    <t>神符 · 三阶</t>
-  </si>
-  <si>
-    <t>神符 · 四阶</t>
-  </si>
-  <si>
-    <t>神符 · 五阶</t>
-  </si>
-  <si>
-    <t>神符 · 六阶</t>
-  </si>
-  <si>
-    <t>神符 · 七阶</t>
-  </si>
-  <si>
-    <t>神符 · 八阶</t>
-  </si>
-  <si>
-    <t>神符 · 九阶</t>
-  </si>
-  <si>
-    <t>神符 · 十阶</t>
+    <t>神符一阶</t>
+  </si>
+  <si>
+    <t>神符二阶</t>
+  </si>
+  <si>
+    <t>神符三阶</t>
+  </si>
+  <si>
+    <t>神符四阶</t>
+  </si>
+  <si>
+    <t>神符五阶</t>
+  </si>
+  <si>
+    <t>神符六阶</t>
+  </si>
+  <si>
+    <t>神符七阶</t>
+  </si>
+  <si>
+    <t>神符八阶</t>
+  </si>
+  <si>
+    <t>神符九阶</t>
+  </si>
+  <si>
+    <t>神符十阶</t>
+  </si>
+  <si>
+    <t>神符十一阶</t>
+  </si>
+  <si>
+    <t>神符十二阶</t>
   </si>
   <si>
     <t>魔石</t>
   </si>
   <si>
-    <t>魔石 · 一阶</t>
-  </si>
-  <si>
-    <t>魔石 · 二阶</t>
-  </si>
-  <si>
-    <t>魔石 · 三阶</t>
-  </si>
-  <si>
-    <t>魔石 · 四阶</t>
-  </si>
-  <si>
-    <t>魔石 · 五阶</t>
-  </si>
-  <si>
-    <t>魔石 · 六阶</t>
-  </si>
-  <si>
-    <t>魔石 · 七阶</t>
-  </si>
-  <si>
-    <t>魔石 · 八阶</t>
-  </si>
-  <si>
-    <t>魔石 · 九阶</t>
-  </si>
-  <si>
-    <t>魔石 · 十阶</t>
+    <t>魔石一阶</t>
+  </si>
+  <si>
+    <t>魔石二阶</t>
+  </si>
+  <si>
+    <t>魔石三阶</t>
+  </si>
+  <si>
+    <t>魔石四阶</t>
+  </si>
+  <si>
+    <t>魔石五阶</t>
+  </si>
+  <si>
+    <t>魔石六阶</t>
+  </si>
+  <si>
+    <t>魔石七阶</t>
+  </si>
+  <si>
+    <t>魔石八阶</t>
+  </si>
+  <si>
+    <t>魔石九阶</t>
+  </si>
+  <si>
+    <t>魔石十阶</t>
+  </si>
+  <si>
+    <t>魔石十一阶</t>
+  </si>
+  <si>
+    <t>魔石十二阶</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -227,34 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -268,14 +264,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,6 +303,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,7 +368,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,49 +410,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,121 +548,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,21 +601,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,6 +633,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,148 +704,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -832,52 +856,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1303,10 +1327,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L41"/>
+  <dimension ref="C1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1710,25 +1734,25 @@
     </row>
     <row r="15" spans="3:12">
       <c r="C15">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>110</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15">
-        <v>201</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
       <c r="I15">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1737,30 +1761,30 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="16" spans="3:12">
       <c r="C16">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
         <v>24</v>
       </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
       <c r="F16">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I16">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1769,21 +1793,21 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="17" spans="3:12">
       <c r="C17">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
       </c>
       <c r="F17">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1792,7 +1816,7 @@
         <v>28</v>
       </c>
       <c r="I17">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1806,16 +1830,16 @@
     </row>
     <row r="18" spans="3:12">
       <c r="C18">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
       </c>
       <c r="F18">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1824,7 +1848,7 @@
         <v>29</v>
       </c>
       <c r="I18">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1838,16 +1862,16 @@
     </row>
     <row r="19" spans="3:12">
       <c r="C19">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
       <c r="F19">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1856,7 +1880,7 @@
         <v>30</v>
       </c>
       <c r="I19">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1870,16 +1894,16 @@
     </row>
     <row r="20" spans="3:12">
       <c r="C20">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1888,7 +1912,7 @@
         <v>31</v>
       </c>
       <c r="I20">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1902,16 +1926,16 @@
     </row>
     <row r="21" spans="3:12">
       <c r="C21">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
         <v>31</v>
       </c>
       <c r="F21">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1920,7 +1944,7 @@
         <v>32</v>
       </c>
       <c r="I21">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1934,16 +1958,16 @@
     </row>
     <row r="22" spans="3:12">
       <c r="C22">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
         <v>32</v>
       </c>
       <c r="F22">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1952,7 +1976,7 @@
         <v>33</v>
       </c>
       <c r="I22">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1966,16 +1990,16 @@
     </row>
     <row r="23" spans="3:12">
       <c r="C23">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
       </c>
       <c r="F23">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1984,7 +2008,7 @@
         <v>34</v>
       </c>
       <c r="I23">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1998,25 +2022,25 @@
     </row>
     <row r="24" spans="3:12">
       <c r="C24">
-        <v>301</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24">
+        <v>208</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
         <v>35</v>
       </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24">
-        <v>301</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
       <c r="I24">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2030,25 +2054,25 @@
     </row>
     <row r="25" spans="3:12">
       <c r="C25">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
         <v>35</v>
       </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
       <c r="F25">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I25">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2062,25 +2086,25 @@
     </row>
     <row r="26" spans="3:12">
       <c r="C26">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I26">
-        <v>304</v>
+        <v>211</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -2089,30 +2113,30 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="27" spans="3:12">
       <c r="C27">
-        <v>304</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27">
-        <v>304</v>
+        <v>211</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I27">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2121,21 +2145,21 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="28" spans="3:12">
       <c r="C28">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="F28">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2144,7 +2168,7 @@
         <v>41</v>
       </c>
       <c r="I28">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2158,16 +2182,16 @@
     </row>
     <row r="29" spans="3:12">
       <c r="C29">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
         <v>41</v>
       </c>
       <c r="F29">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2176,7 +2200,7 @@
         <v>42</v>
       </c>
       <c r="I29">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -2190,16 +2214,16 @@
     </row>
     <row r="30" spans="3:12">
       <c r="C30">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
         <v>42</v>
       </c>
       <c r="F30">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2208,7 +2232,7 @@
         <v>43</v>
       </c>
       <c r="I30">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2222,16 +2246,16 @@
     </row>
     <row r="31" spans="3:12">
       <c r="C31">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
         <v>43</v>
       </c>
       <c r="F31">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -2240,7 +2264,7 @@
         <v>44</v>
       </c>
       <c r="I31">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -2254,16 +2278,16 @@
     </row>
     <row r="32" spans="3:12">
       <c r="C32">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
         <v>44</v>
       </c>
       <c r="F32">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2272,7 +2296,7 @@
         <v>45</v>
       </c>
       <c r="I32">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -2286,25 +2310,25 @@
     </row>
     <row r="33" spans="3:12">
       <c r="C33">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>306</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="E33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33">
-        <v>401</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
       <c r="I33">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -2318,25 +2342,25 @@
     </row>
     <row r="34" spans="3:12">
       <c r="C34">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
         <v>46</v>
       </c>
-      <c r="E34" t="s">
-        <v>48</v>
-      </c>
       <c r="F34">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I34">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -2350,25 +2374,25 @@
     </row>
     <row r="35" spans="3:12">
       <c r="C35">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F35">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I35">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -2382,25 +2406,25 @@
     </row>
     <row r="36" spans="3:12">
       <c r="C36">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F36">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I36">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -2414,25 +2438,25 @@
     </row>
     <row r="37" spans="3:12">
       <c r="C37">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F37">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I37">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -2441,30 +2465,30 @@
         <v>2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="38" spans="3:12">
       <c r="C38">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I38">
-        <v>407</v>
+        <v>312</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -2473,21 +2497,21 @@
         <v>2</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="39" spans="3:12">
       <c r="C39">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
         <v>53</v>
       </c>
       <c r="F39">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -2496,7 +2520,7 @@
         <v>54</v>
       </c>
       <c r="I39">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -2510,16 +2534,16 @@
     </row>
     <row r="40" spans="3:12">
       <c r="C40">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
         <v>54</v>
       </c>
       <c r="F40">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -2528,7 +2552,7 @@
         <v>55</v>
       </c>
       <c r="I40">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -2542,16 +2566,16 @@
     </row>
     <row r="41" spans="3:12">
       <c r="C41">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
         <v>55</v>
       </c>
       <c r="F41">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -2560,16 +2584,272 @@
         <v>56</v>
       </c>
       <c r="I41">
+        <v>404</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42">
+        <v>404</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42">
+        <v>404</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42">
+        <v>405</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43">
+        <v>405</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43">
+        <v>405</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43">
+        <v>406</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44">
+        <v>406</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44">
+        <v>406</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44">
+        <v>407</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45">
+        <v>407</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45">
+        <v>407</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45">
+        <v>408</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46">
+        <v>408</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46">
+        <v>408</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46">
+        <v>409</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47">
+        <v>409</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47">
+        <v>409</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47">
         <v>410</v>
       </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="C48">
+        <v>410</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48">
+        <v>410</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48">
+        <v>411</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12">
+      <c r="C49">
+        <v>411</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49">
+        <v>411</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49">
+        <v>412</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -59,7 +59,7 @@
     <t>斗笠</t>
   </si>
   <si>
-    <t>斗笠·一阶</t>
+    <t>斗笠一阶</t>
   </si>
   <si>
     <t>斗笠二阶</t>
@@ -1329,8 +1329,8 @@
   <sheetPr/>
   <dimension ref="C1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -210,6 +210,45 @@
   </si>
   <si>
     <t>魔石十二阶</t>
+  </si>
+  <si>
+    <t>专属</t>
+  </si>
+  <si>
+    <t>铜矿</t>
+  </si>
+  <si>
+    <t>银蛇</t>
+  </si>
+  <si>
+    <t>铁矿</t>
+  </si>
+  <si>
+    <t>血饮</t>
+  </si>
+  <si>
+    <t>银矿</t>
+  </si>
+  <si>
+    <t>裁决</t>
+  </si>
+  <si>
+    <t>金矿</t>
+  </si>
+  <si>
+    <t>命运</t>
+  </si>
+  <si>
+    <t>黑铁矿</t>
+  </si>
+  <si>
+    <t>倚天</t>
+  </si>
+  <si>
+    <t>紫金矿</t>
+  </si>
+  <si>
+    <t>屠龙</t>
   </si>
 </sst>
 </file>
@@ -1327,10 +1366,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L49"/>
+  <dimension ref="C1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1761,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:12">
@@ -1793,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:12">
@@ -2113,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:12">
@@ -2145,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:12">
@@ -2465,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="L37">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:12">
@@ -2497,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="L38">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:12">
@@ -2817,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="L48">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:12">
@@ -2849,7 +2888,199 @@
         <v>2</v>
       </c>
       <c r="L49">
-        <v>10000000</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="3:12">
+      <c r="C50">
+        <v>501</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4101</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="3:12">
+      <c r="C51">
+        <v>502</v>
+      </c>
+      <c r="D51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4102</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="3:12">
+      <c r="C52">
+        <v>503</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4103</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="3:12">
+      <c r="C53">
+        <v>504</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4104</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>10</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="3:12">
+      <c r="C54">
+        <v>505</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="1">
+        <v>4105</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="3:12">
+      <c r="C55">
+        <v>506</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="1">
+        <v>4106</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <v>10</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -1368,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="C1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2917,7 +2917,7 @@
         <v>10</v>
       </c>
       <c r="K50">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>10</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>10</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>10</v>
       </c>
       <c r="K53">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>10</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>10</v>
       </c>
       <c r="K55">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L55">
         <v>0</v>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机" sheetId="1" r:id="rId1"/>
@@ -218,37 +218,37 @@
     <t>铜矿</t>
   </si>
   <si>
-    <t>银蛇</t>
+    <t>神圣怒斩</t>
   </si>
   <si>
     <t>铁矿</t>
   </si>
   <si>
-    <t>血饮</t>
+    <t>神圣噬魂</t>
   </si>
   <si>
     <t>银矿</t>
   </si>
   <si>
-    <t>裁决</t>
+    <t>神圣血饮</t>
   </si>
   <si>
     <t>金矿</t>
   </si>
   <si>
-    <t>命运</t>
+    <t>神圣屠龙</t>
   </si>
   <si>
     <t>黑铁矿</t>
   </si>
   <si>
-    <t>倚天</t>
+    <t>神圣倚天</t>
   </si>
   <si>
     <t>紫金矿</t>
   </si>
   <si>
-    <t>屠龙</t>
+    <t>神圣命运</t>
   </si>
 </sst>
 </file>
@@ -1368,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="C1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="65">
   <si>
     <t>Id</t>
   </si>
@@ -210,45 +210,6 @@
   </si>
   <si>
     <t>魔石十二阶</t>
-  </si>
-  <si>
-    <t>专属</t>
-  </si>
-  <si>
-    <t>铜矿</t>
-  </si>
-  <si>
-    <t>神圣怒斩</t>
-  </si>
-  <si>
-    <t>铁矿</t>
-  </si>
-  <si>
-    <t>神圣噬魂</t>
-  </si>
-  <si>
-    <t>银矿</t>
-  </si>
-  <si>
-    <t>神圣血饮</t>
-  </si>
-  <si>
-    <t>金矿</t>
-  </si>
-  <si>
-    <t>神圣屠龙</t>
-  </si>
-  <si>
-    <t>黑铁矿</t>
-  </si>
-  <si>
-    <t>神圣倚天</t>
-  </si>
-  <si>
-    <t>紫金矿</t>
-  </si>
-  <si>
-    <t>神圣命运</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1330,7 @@
   <dimension ref="C1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="A50" sqref="$A50:$XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2891,197 +2852,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="3:12">
-      <c r="C50">
-        <v>501</v>
-      </c>
-      <c r="D50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="1">
-        <v>4101</v>
-      </c>
-      <c r="G50">
-        <v>5</v>
-      </c>
-      <c r="H50" t="s">
-        <v>67</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>10</v>
-      </c>
-      <c r="K50">
-        <v>6</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" spans="3:12">
-      <c r="C51">
-        <v>502</v>
-      </c>
-      <c r="D51" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" s="1">
-        <v>4102</v>
-      </c>
-      <c r="G51">
-        <v>5</v>
-      </c>
-      <c r="H51" t="s">
-        <v>69</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
-      <c r="J51">
-        <v>10</v>
-      </c>
-      <c r="K51">
-        <v>6</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" spans="3:12">
-      <c r="C52">
-        <v>503</v>
-      </c>
-      <c r="D52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="1">
-        <v>4103</v>
-      </c>
-      <c r="G52">
-        <v>5</v>
-      </c>
-      <c r="H52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-      <c r="J52">
-        <v>10</v>
-      </c>
-      <c r="K52">
-        <v>6</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" spans="3:12">
-      <c r="C53">
-        <v>504</v>
-      </c>
-      <c r="D53" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="1">
-        <v>4104</v>
-      </c>
-      <c r="G53">
-        <v>5</v>
-      </c>
-      <c r="H53" t="s">
-        <v>73</v>
-      </c>
-      <c r="I53">
-        <v>4</v>
-      </c>
-      <c r="J53">
-        <v>10</v>
-      </c>
-      <c r="K53">
-        <v>6</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" spans="3:12">
-      <c r="C54">
-        <v>505</v>
-      </c>
-      <c r="D54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" s="1">
-        <v>4105</v>
-      </c>
-      <c r="G54">
-        <v>5</v>
-      </c>
-      <c r="H54" t="s">
-        <v>75</v>
-      </c>
-      <c r="I54">
-        <v>5</v>
-      </c>
-      <c r="J54">
-        <v>10</v>
-      </c>
-      <c r="K54">
-        <v>6</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" spans="3:12">
-      <c r="C55">
-        <v>506</v>
-      </c>
-      <c r="D55" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" s="1">
-        <v>4106</v>
-      </c>
-      <c r="G55">
-        <v>5</v>
-      </c>
-      <c r="H55" t="s">
-        <v>77</v>
-      </c>
-      <c r="I55">
-        <v>6</v>
-      </c>
-      <c r="J55">
-        <v>10</v>
-      </c>
-      <c r="K55">
-        <v>6</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
+    <row r="50" ht="14.25" spans="5:6">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" ht="14.25" spans="5:6">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" ht="14.25" spans="5:6">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" ht="14.25" spans="5:6">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" ht="14.25" spans="5:6">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" ht="14.25" spans="5:6">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
   <si>
     <t>Id</t>
   </si>
@@ -95,6 +95,9 @@
     <t>斗笠十二阶</t>
   </si>
   <si>
+    <t>斗笠十三阶</t>
+  </si>
+  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -134,6 +137,9 @@
     <t>护盾十二阶</t>
   </si>
   <si>
+    <t>护盾十三阶</t>
+  </si>
+  <si>
     <t>神符</t>
   </si>
   <si>
@@ -173,6 +179,9 @@
     <t>神符十二阶</t>
   </si>
   <si>
+    <t>神符十三阶</t>
+  </si>
+  <si>
     <t>魔石</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
   </si>
   <si>
     <t>魔石十二阶</t>
+  </si>
+  <si>
+    <t>魔石十三阶</t>
   </si>
 </sst>
 </file>
@@ -1327,10 +1339,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L55"/>
+  <dimension ref="C1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A50" sqref="$A50:$XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1798,25 +1810,25 @@
     </row>
     <row r="17" spans="3:12">
       <c r="C17">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>112</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17">
-        <v>201</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
       <c r="I17">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1825,94 +1837,30 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="C18">
-        <v>202</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18">
-        <v>202</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18">
-        <v>203</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19">
-        <v>203</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19">
-        <v>203</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19">
-        <v>204</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:12">
       <c r="C20">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I20">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1926,25 +1874,25 @@
     </row>
     <row r="21" spans="3:12">
       <c r="C21">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I21">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1958,25 +1906,25 @@
     </row>
     <row r="22" spans="3:12">
       <c r="C22">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I22">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1990,25 +1938,25 @@
     </row>
     <row r="23" spans="3:12">
       <c r="C23">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I23">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2022,25 +1970,25 @@
     </row>
     <row r="24" spans="3:12">
       <c r="C24">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F24">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I24">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2054,25 +2002,25 @@
     </row>
     <row r="25" spans="3:12">
       <c r="C25">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I25">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2086,25 +2034,25 @@
     </row>
     <row r="26" spans="3:12">
       <c r="C26">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F26">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I26">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -2118,25 +2066,25 @@
     </row>
     <row r="27" spans="3:12">
       <c r="C27">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F27">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I27">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2150,25 +2098,25 @@
     </row>
     <row r="28" spans="3:12">
       <c r="C28">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F28">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I28">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2182,25 +2130,25 @@
     </row>
     <row r="29" spans="3:12">
       <c r="C29">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F29">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I29">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -2214,25 +2162,25 @@
     </row>
     <row r="30" spans="3:12">
       <c r="C30">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30">
+        <v>211</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
         <v>39</v>
       </c>
-      <c r="E30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30">
-        <v>303</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
       <c r="I30">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2246,25 +2194,25 @@
     </row>
     <row r="31" spans="3:12">
       <c r="C31">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
         <v>39</v>
       </c>
-      <c r="E31" t="s">
-        <v>43</v>
-      </c>
       <c r="F31">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I31">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -2273,94 +2221,30 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12">
-      <c r="C32">
-        <v>305</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32">
-        <v>305</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32">
-        <v>306</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12">
-      <c r="C33">
-        <v>306</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33">
-        <v>306</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33">
-        <v>307</v>
-      </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:12">
       <c r="C34">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F34">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I34">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -2374,25 +2258,25 @@
     </row>
     <row r="35" spans="3:12">
       <c r="C35">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F35">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I35">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -2406,25 +2290,25 @@
     </row>
     <row r="36" spans="3:12">
       <c r="C36">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F36">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I36">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -2438,25 +2322,25 @@
     </row>
     <row r="37" spans="3:12">
       <c r="C37">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F37">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I37">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -2470,25 +2354,25 @@
     </row>
     <row r="38" spans="3:12">
       <c r="C38">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F38">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I38">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -2502,25 +2386,25 @@
     </row>
     <row r="39" spans="3:12">
       <c r="C39">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F39">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I39">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -2534,25 +2418,25 @@
     </row>
     <row r="40" spans="3:12">
       <c r="C40">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F40">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I40">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -2566,25 +2450,25 @@
     </row>
     <row r="41" spans="3:12">
       <c r="C41">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F41">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I41">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -2598,25 +2482,25 @@
     </row>
     <row r="42" spans="3:12">
       <c r="C42">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F42">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I42">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -2630,25 +2514,25 @@
     </row>
     <row r="43" spans="3:12">
       <c r="C43">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43">
+        <v>310</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
         <v>52</v>
       </c>
-      <c r="E43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43">
-        <v>405</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43" t="s">
-        <v>58</v>
-      </c>
       <c r="I43">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -2662,25 +2546,25 @@
     </row>
     <row r="44" spans="3:12">
       <c r="C44">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
         <v>52</v>
       </c>
-      <c r="E44" t="s">
-        <v>58</v>
-      </c>
       <c r="F44">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="G44">
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I44">
-        <v>407</v>
+        <v>312</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -2694,25 +2578,25 @@
     </row>
     <row r="45" spans="3:12">
       <c r="C45">
-        <v>407</v>
+        <v>312</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F45">
-        <v>407</v>
+        <v>312</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I45">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -2721,94 +2605,30 @@
         <v>2</v>
       </c>
       <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12">
-      <c r="C46">
-        <v>408</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46">
-        <v>408</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46">
-        <v>409</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
-      </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12">
-      <c r="C47">
-        <v>409</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47">
-        <v>409</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-      <c r="I47">
-        <v>410</v>
-      </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:12">
       <c r="C48">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F48">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I48">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -2822,59 +2642,375 @@
     </row>
     <row r="49" spans="3:12">
       <c r="C49">
+        <v>402</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49">
+        <v>402</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49">
+        <v>403</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12">
+      <c r="C50">
+        <v>403</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50">
+        <v>403</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50">
+        <v>404</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12">
+      <c r="C51">
+        <v>404</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51">
+        <v>404</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51">
+        <v>405</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12">
+      <c r="C52">
+        <v>405</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52">
+        <v>405</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52">
+        <v>406</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12">
+      <c r="C53">
+        <v>406</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53">
+        <v>406</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53">
+        <v>407</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12">
+      <c r="C54">
+        <v>407</v>
+      </c>
+      <c r="D54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54">
+        <v>407</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54">
+        <v>408</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12">
+      <c r="C55">
+        <v>408</v>
+      </c>
+      <c r="D55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55">
+        <v>408</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55">
+        <v>409</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12">
+      <c r="C56">
+        <v>409</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56">
+        <v>409</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56">
+        <v>410</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12">
+      <c r="C57">
+        <v>410</v>
+      </c>
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57">
+        <v>410</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57">
         <v>411</v>
       </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49">
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12">
+      <c r="C58">
         <v>411</v>
       </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-      <c r="I49">
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58">
+        <v>411</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58">
         <v>412</v>
       </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49">
-        <v>2</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" spans="5:6">
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" ht="14.25" spans="5:6">
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" ht="14.25" spans="5:6">
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" ht="14.25" spans="5:6">
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" ht="14.25" spans="5:6">
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" ht="14.25" spans="5:6">
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12">
+      <c r="C59">
+        <v>412</v>
+      </c>
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59">
+        <v>412</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59">
+        <v>413</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="5:6">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" ht="14.25" spans="5:6">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" ht="14.25" spans="5:6">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" ht="14.25" spans="5:6">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" ht="14.25" spans="5:6">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -169,6 +169,15 @@
     <t>斗笠十三阶</t>
   </si>
   <si>
+    <t>113,4007</t>
+  </si>
+  <si>
+    <t>1,8192</t>
+  </si>
+  <si>
+    <t>斗笠十四阶</t>
+  </si>
+  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -244,6 +253,12 @@
     <t>护盾十三阶</t>
   </si>
   <si>
+    <t>213,4007</t>
+  </si>
+  <si>
+    <t>护盾十四阶</t>
+  </si>
+  <si>
     <t>神符</t>
   </si>
   <si>
@@ -319,6 +334,12 @@
     <t>神符十三阶</t>
   </si>
   <si>
+    <t>313,4007</t>
+  </si>
+  <si>
+    <t>神符十四阶</t>
+  </si>
+  <si>
     <t>魔石</t>
   </si>
   <si>
@@ -392,6 +413,12 @@
   </si>
   <si>
     <t>魔石十三阶</t>
+  </si>
+  <si>
+    <t>413,4007</t>
+  </si>
+  <si>
+    <t>魔石十四阶</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1414,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K59"/>
+  <dimension ref="C1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1843,18 +1870,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="18" customHeight="1" spans="3:11">
+      <c r="C18" s="1">
+        <v>113</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="1">
+        <v>114</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="20" customHeight="1" spans="3:11">
       <c r="C20" s="1">
         <v>201</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>15</v>
@@ -1863,7 +1919,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J20" s="1">
         <v>202</v>
@@ -1877,13 +1933,13 @@
         <v>202</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>19</v>
@@ -1892,7 +1948,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1">
         <v>203</v>
@@ -1906,13 +1962,13 @@
         <v>203</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>22</v>
@@ -1921,7 +1977,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J22" s="1">
         <v>204</v>
@@ -1935,13 +1991,13 @@
         <v>204</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>25</v>
@@ -1950,7 +2006,7 @@
         <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J23" s="1">
         <v>205</v>
@@ -1964,13 +2020,13 @@
         <v>205</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>28</v>
@@ -1979,7 +2035,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J24" s="1">
         <v>206</v>
@@ -1993,13 +2049,13 @@
         <v>206</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>31</v>
@@ -2008,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J25" s="1">
         <v>207</v>
@@ -2022,13 +2078,13 @@
         <v>207</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>34</v>
@@ -2037,7 +2093,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J26" s="1">
         <v>208</v>
@@ -2051,13 +2107,13 @@
         <v>208</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>37</v>
@@ -2066,7 +2122,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J27" s="1">
         <v>209</v>
@@ -2080,13 +2136,13 @@
         <v>209</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>40</v>
@@ -2095,7 +2151,7 @@
         <v>16</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J28" s="1">
         <v>210</v>
@@ -2109,13 +2165,13 @@
         <v>210</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>43</v>
@@ -2124,7 +2180,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J29" s="1">
         <v>211</v>
@@ -2138,13 +2194,13 @@
         <v>211</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>46</v>
@@ -2153,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J30" s="1">
         <v>212</v>
@@ -2167,13 +2223,13 @@
         <v>212</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>49</v>
@@ -2182,12 +2238,41 @@
         <v>16</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J31" s="1">
         <v>213</v>
       </c>
       <c r="K31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:11">
+      <c r="C32" s="1">
+        <v>213</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="1">
+        <v>214</v>
+      </c>
+      <c r="K32" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2196,13 +2281,13 @@
         <v>301</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>15</v>
@@ -2211,7 +2296,7 @@
         <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J34" s="1">
         <v>302</v>
@@ -2225,13 +2310,13 @@
         <v>302</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>19</v>
@@ -2240,7 +2325,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J35" s="1">
         <v>303</v>
@@ -2254,13 +2339,13 @@
         <v>303</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>22</v>
@@ -2269,7 +2354,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J36" s="1">
         <v>304</v>
@@ -2283,13 +2368,13 @@
         <v>304</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>25</v>
@@ -2298,7 +2383,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J37" s="1">
         <v>305</v>
@@ -2312,13 +2397,13 @@
         <v>305</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>28</v>
@@ -2327,7 +2412,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1">
         <v>306</v>
@@ -2341,13 +2426,13 @@
         <v>306</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>31</v>
@@ -2356,7 +2441,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J39" s="1">
         <v>307</v>
@@ -2370,13 +2455,13 @@
         <v>307</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>34</v>
@@ -2385,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J40" s="1">
         <v>308</v>
@@ -2399,13 +2484,13 @@
         <v>308</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>37</v>
@@ -2414,7 +2499,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J41" s="1">
         <v>309</v>
@@ -2428,13 +2513,13 @@
         <v>309</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>40</v>
@@ -2443,7 +2528,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J42" s="1">
         <v>310</v>
@@ -2457,13 +2542,13 @@
         <v>310</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>43</v>
@@ -2472,7 +2557,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J43" s="1">
         <v>311</v>
@@ -2486,13 +2571,13 @@
         <v>311</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>46</v>
@@ -2501,7 +2586,7 @@
         <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J44" s="1">
         <v>312</v>
@@ -2515,13 +2600,13 @@
         <v>312</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>49</v>
@@ -2530,12 +2615,41 @@
         <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J45" s="1">
         <v>313</v>
       </c>
       <c r="K45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:11">
+      <c r="C46" s="1">
+        <v>313</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="1">
+        <v>314</v>
+      </c>
+      <c r="K46" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2544,13 +2658,13 @@
         <v>401</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>15</v>
@@ -2559,7 +2673,7 @@
         <v>16</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J48" s="1">
         <v>402</v>
@@ -2573,13 +2687,13 @@
         <v>402</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>19</v>
@@ -2588,7 +2702,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J49" s="1">
         <v>403</v>
@@ -2602,13 +2716,13 @@
         <v>403</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>22</v>
@@ -2617,7 +2731,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J50" s="1">
         <v>404</v>
@@ -2631,13 +2745,13 @@
         <v>404</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>25</v>
@@ -2646,7 +2760,7 @@
         <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J51" s="1">
         <v>405</v>
@@ -2660,13 +2774,13 @@
         <v>405</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>28</v>
@@ -2675,7 +2789,7 @@
         <v>16</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J52" s="1">
         <v>406</v>
@@ -2689,13 +2803,13 @@
         <v>406</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>31</v>
@@ -2704,7 +2818,7 @@
         <v>16</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="J53" s="1">
         <v>407</v>
@@ -2718,13 +2832,13 @@
         <v>407</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>34</v>
@@ -2733,7 +2847,7 @@
         <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J54" s="1">
         <v>408</v>
@@ -2747,13 +2861,13 @@
         <v>408</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>37</v>
@@ -2762,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J55" s="1">
         <v>409</v>
@@ -2776,13 +2890,13 @@
         <v>409</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>40</v>
@@ -2791,7 +2905,7 @@
         <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J56" s="1">
         <v>410</v>
@@ -2805,13 +2919,13 @@
         <v>410</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>43</v>
@@ -2820,7 +2934,7 @@
         <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J57" s="1">
         <v>411</v>
@@ -2834,13 +2948,13 @@
         <v>411</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>46</v>
@@ -2849,7 +2963,7 @@
         <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J58" s="1">
         <v>412</v>
@@ -2863,13 +2977,13 @@
         <v>412</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>49</v>
@@ -2878,12 +2992,41 @@
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="J59" s="1">
         <v>413</v>
       </c>
       <c r="K59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:11">
+      <c r="C60" s="1">
+        <v>413</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J60" s="1">
+        <v>414</v>
+      </c>
+      <c r="K60" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="144">
   <si>
     <t>Id</t>
   </si>
@@ -178,6 +191,15 @@
     <t>斗笠十四阶</t>
   </si>
   <si>
+    <t>114,4007</t>
+  </si>
+  <si>
+    <t>1,16384</t>
+  </si>
+  <si>
+    <t>斗笠十五阶</t>
+  </si>
+  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -259,6 +281,12 @@
     <t>护盾十四阶</t>
   </si>
   <si>
+    <t>214,4007</t>
+  </si>
+  <si>
+    <t>护盾十五阶</t>
+  </si>
+  <si>
     <t>神符</t>
   </si>
   <si>
@@ -340,6 +368,12 @@
     <t>神符十四阶</t>
   </si>
   <si>
+    <t>314,4007</t>
+  </si>
+  <si>
+    <t>神符十五阶</t>
+  </si>
+  <si>
     <t>魔石</t>
   </si>
   <si>
@@ -419,12 +453,18 @@
   </si>
   <si>
     <t>魔石十四阶</t>
+  </si>
+  <si>
+    <t>414,4007</t>
+  </si>
+  <si>
+    <t>魔石十五阶</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1414,10 +1454,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K60"/>
+  <dimension ref="C1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1899,88 +1939,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:11">
-      <c r="C20" s="1">
-        <v>201</v>
-      </c>
-      <c r="D20" s="1" t="s">
+    <row r="19" customHeight="1" spans="3:11">
+      <c r="C19" s="1">
+        <v>114</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="H19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="1">
-        <v>202</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:11">
-      <c r="C21" s="1">
-        <v>202</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="1">
-        <v>203</v>
-      </c>
-      <c r="K21" s="1">
+      <c r="J19" s="1">
+        <v>115</v>
+      </c>
+      <c r="K19" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:11">
       <c r="C22" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="J22" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K22" s="1">
         <v>2</v>
@@ -1988,28 +1999,28 @@
     </row>
     <row r="23" customHeight="1" spans="3:11">
       <c r="C23" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="J23" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K23" s="1">
         <v>2</v>
@@ -2017,28 +2028,28 @@
     </row>
     <row r="24" customHeight="1" spans="3:11">
       <c r="C24" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="J24" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
@@ -2046,28 +2057,28 @@
     </row>
     <row r="25" customHeight="1" spans="3:11">
       <c r="C25" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J25" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K25" s="1">
         <v>2</v>
@@ -2075,28 +2086,28 @@
     </row>
     <row r="26" customHeight="1" spans="3:11">
       <c r="C26" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J26" s="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K26" s="1">
         <v>2</v>
@@ -2104,28 +2115,28 @@
     </row>
     <row r="27" customHeight="1" spans="3:11">
       <c r="C27" s="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="J27" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K27" s="1">
         <v>2</v>
@@ -2133,28 +2144,28 @@
     </row>
     <row r="28" customHeight="1" spans="3:11">
       <c r="C28" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="J28" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
@@ -2162,28 +2173,28 @@
     </row>
     <row r="29" customHeight="1" spans="3:11">
       <c r="C29" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="J29" s="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K29" s="1">
         <v>2</v>
@@ -2191,28 +2202,28 @@
     </row>
     <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="J30" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K30" s="1">
         <v>2</v>
@@ -2220,28 +2231,28 @@
     </row>
     <row r="31" customHeight="1" spans="3:11">
       <c r="C31" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="J31" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
@@ -2249,39 +2260,68 @@
     </row>
     <row r="32" customHeight="1" spans="3:11">
       <c r="C32" s="1">
+        <v>211</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" s="1">
+        <v>212</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:11">
+      <c r="C33" s="1">
+        <v>212</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="1">
         <v>213</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="1">
-        <v>214</v>
-      </c>
-      <c r="K32" s="1">
+      <c r="K33" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -2290,7 +2330,7 @@
         <v>82</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>16</v>
@@ -2299,7 +2339,7 @@
         <v>83</v>
       </c>
       <c r="J34" s="1">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="K34" s="1">
         <v>2</v>
@@ -2307,10 +2347,10 @@
     </row>
     <row r="35" customHeight="1" spans="3:11">
       <c r="C35" s="1">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -2319,7 +2359,7 @@
         <v>84</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>16</v>
@@ -2328,94 +2368,36 @@
         <v>85</v>
       </c>
       <c r="J35" s="1">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="K35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:11">
-      <c r="C36" s="1">
-        <v>303</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J36" s="1">
-        <v>304</v>
-      </c>
-      <c r="K36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:11">
-      <c r="C37" s="1">
-        <v>304</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" s="1">
-        <v>305</v>
-      </c>
-      <c r="K37" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J38" s="1">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K38" s="1">
         <v>2</v>
@@ -2423,28 +2405,28 @@
     </row>
     <row r="39" customHeight="1" spans="3:11">
       <c r="C39" s="1">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J39" s="1">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K39" s="1">
         <v>2</v>
@@ -2452,28 +2434,28 @@
     </row>
     <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="1">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J40" s="1">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K40" s="1">
         <v>2</v>
@@ -2481,28 +2463,28 @@
     </row>
     <row r="41" customHeight="1" spans="3:11">
       <c r="C41" s="1">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J41" s="1">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K41" s="1">
         <v>2</v>
@@ -2510,28 +2492,28 @@
     </row>
     <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="1">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J42" s="1">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K42" s="1">
         <v>2</v>
@@ -2539,28 +2521,28 @@
     </row>
     <row r="43" customHeight="1" spans="3:11">
       <c r="C43" s="1">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J43" s="1">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K43" s="1">
         <v>2</v>
@@ -2568,28 +2550,28 @@
     </row>
     <row r="44" customHeight="1" spans="3:11">
       <c r="C44" s="1">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J44" s="1">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K44" s="1">
         <v>2</v>
@@ -2597,28 +2579,28 @@
     </row>
     <row r="45" customHeight="1" spans="3:11">
       <c r="C45" s="1">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J45" s="1">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K45" s="1">
         <v>2</v>
@@ -2626,57 +2608,86 @@
     </row>
     <row r="46" customHeight="1" spans="3:11">
       <c r="C46" s="1">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J46" s="1">
+        <v>310</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:11">
+      <c r="C47" s="1">
+        <v>310</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J46" s="1">
-        <v>314</v>
-      </c>
-      <c r="K46" s="1">
+      <c r="J47" s="1">
+        <v>311</v>
+      </c>
+      <c r="K47" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:11">
       <c r="C48" s="1">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J48" s="1">
-        <v>402</v>
+        <v>312</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
@@ -2684,28 +2695,28 @@
     </row>
     <row r="49" customHeight="1" spans="3:11">
       <c r="C49" s="1">
-        <v>402</v>
+        <v>312</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J49" s="1">
-        <v>403</v>
+        <v>313</v>
       </c>
       <c r="K49" s="1">
         <v>2</v>
@@ -2713,28 +2724,28 @@
     </row>
     <row r="50" customHeight="1" spans="3:11">
       <c r="C50" s="1">
-        <v>403</v>
+        <v>313</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J50" s="1">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="K50" s="1">
         <v>2</v>
@@ -2742,115 +2753,57 @@
     </row>
     <row r="51" customHeight="1" spans="3:11">
       <c r="C51" s="1">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J51" s="1">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="K51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:11">
-      <c r="C52" s="1">
-        <v>405</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J52" s="1">
-        <v>406</v>
-      </c>
-      <c r="K52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:11">
-      <c r="C53" s="1">
-        <v>406</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J53" s="1">
-        <v>407</v>
-      </c>
-      <c r="K53" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:11">
       <c r="C54" s="1">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J54" s="1">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K54" s="1">
         <v>2</v>
@@ -2858,28 +2811,28 @@
     </row>
     <row r="55" customHeight="1" spans="3:11">
       <c r="C55" s="1">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J55" s="1">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K55" s="1">
         <v>2</v>
@@ -2887,28 +2840,28 @@
     </row>
     <row r="56" customHeight="1" spans="3:11">
       <c r="C56" s="1">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J56" s="1">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K56" s="1">
         <v>2</v>
@@ -2916,28 +2869,28 @@
     </row>
     <row r="57" customHeight="1" spans="3:11">
       <c r="C57" s="1">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J57" s="1">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K57" s="1">
         <v>2</v>
@@ -2945,28 +2898,28 @@
     </row>
     <row r="58" customHeight="1" spans="3:11">
       <c r="C58" s="1">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J58" s="1">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
@@ -2974,28 +2927,28 @@
     </row>
     <row r="59" customHeight="1" spans="3:11">
       <c r="C59" s="1">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J59" s="1">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K59" s="1">
         <v>2</v>
@@ -3003,30 +2956,233 @@
     </row>
     <row r="60" customHeight="1" spans="3:11">
       <c r="C60" s="1">
+        <v>407</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J60" s="1">
+        <v>408</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:11">
+      <c r="C61" s="1">
+        <v>408</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J61" s="1">
+        <v>409</v>
+      </c>
+      <c r="K61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:11">
+      <c r="C62" s="1">
+        <v>409</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J62" s="1">
+        <v>410</v>
+      </c>
+      <c r="K62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:11">
+      <c r="C63" s="1">
+        <v>410</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J63" s="1">
+        <v>411</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:11">
+      <c r="C64" s="1">
+        <v>411</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J64" s="1">
+        <v>412</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:11">
+      <c r="C65" s="1">
+        <v>412</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J65" s="1">
         <v>413</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G60" s="4" t="s">
+      <c r="K65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:11">
+      <c r="C66" s="1">
+        <v>413</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J60" s="1">
+      <c r="H66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J66" s="1">
         <v>414</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:11">
+      <c r="C67" s="1">
+        <v>414</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67" s="1">
+        <v>415</v>
+      </c>
+      <c r="K67" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="153">
   <si>
     <t>Id</t>
   </si>
@@ -200,6 +200,15 @@
     <t>斗笠十五阶</t>
   </si>
   <si>
+    <t>115,4007</t>
+  </si>
+  <si>
+    <t>1,32768</t>
+  </si>
+  <si>
+    <t>斗笠十六阶</t>
+  </si>
+  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -287,6 +296,12 @@
     <t>护盾十五阶</t>
   </si>
   <si>
+    <t>215,4007</t>
+  </si>
+  <si>
+    <t>护盾十六阶</t>
+  </si>
+  <si>
     <t>神符</t>
   </si>
   <si>
@@ -374,6 +389,12 @@
     <t>神符十五阶</t>
   </si>
   <si>
+    <t>315,4007</t>
+  </si>
+  <si>
+    <t>神符十六阶</t>
+  </si>
+  <si>
     <t>魔石</t>
   </si>
   <si>
@@ -459,6 +480,12 @@
   </si>
   <si>
     <t>魔石十五阶</t>
+  </si>
+  <si>
+    <t>415,4007</t>
+  </si>
+  <si>
+    <t>魔石十六阶</t>
   </si>
 </sst>
 </file>
@@ -1454,10 +1481,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K67"/>
+  <dimension ref="C1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1968,18 +1995,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="20" customHeight="1" spans="3:11">
+      <c r="C20" s="1">
+        <v>115</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="1">
+        <v>116</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="22" customHeight="1" spans="3:11">
       <c r="C22" s="1">
         <v>201</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>15</v>
@@ -1988,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J22" s="1">
         <v>202</v>
@@ -2002,13 +2058,13 @@
         <v>202</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>19</v>
@@ -2017,7 +2073,7 @@
         <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J23" s="1">
         <v>203</v>
@@ -2031,13 +2087,13 @@
         <v>203</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>22</v>
@@ -2046,7 +2102,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J24" s="1">
         <v>204</v>
@@ -2060,13 +2116,13 @@
         <v>204</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>25</v>
@@ -2075,7 +2131,7 @@
         <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J25" s="1">
         <v>205</v>
@@ -2089,13 +2145,13 @@
         <v>205</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>28</v>
@@ -2104,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J26" s="1">
         <v>206</v>
@@ -2118,13 +2174,13 @@
         <v>206</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>31</v>
@@ -2133,7 +2189,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J27" s="1">
         <v>207</v>
@@ -2147,13 +2203,13 @@
         <v>207</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>34</v>
@@ -2162,7 +2218,7 @@
         <v>16</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J28" s="1">
         <v>208</v>
@@ -2176,13 +2232,13 @@
         <v>208</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>37</v>
@@ -2191,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J29" s="1">
         <v>209</v>
@@ -2205,13 +2261,13 @@
         <v>209</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>40</v>
@@ -2220,7 +2276,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J30" s="1">
         <v>210</v>
@@ -2234,13 +2290,13 @@
         <v>210</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>43</v>
@@ -2249,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J31" s="1">
         <v>211</v>
@@ -2263,13 +2319,13 @@
         <v>211</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>46</v>
@@ -2278,7 +2334,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J32" s="1">
         <v>212</v>
@@ -2292,13 +2348,13 @@
         <v>212</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>49</v>
@@ -2307,7 +2363,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J33" s="1">
         <v>213</v>
@@ -2321,13 +2377,13 @@
         <v>213</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>52</v>
@@ -2336,7 +2392,7 @@
         <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J34" s="1">
         <v>214</v>
@@ -2350,13 +2406,13 @@
         <v>214</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>55</v>
@@ -2365,12 +2421,41 @@
         <v>16</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J35" s="1">
         <v>215</v>
       </c>
       <c r="K35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:11">
+      <c r="C36" s="1">
+        <v>215</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="1">
+        <v>216</v>
+      </c>
+      <c r="K36" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2379,13 +2464,13 @@
         <v>301</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>15</v>
@@ -2394,7 +2479,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J38" s="1">
         <v>302</v>
@@ -2408,13 +2493,13 @@
         <v>302</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>19</v>
@@ -2423,7 +2508,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J39" s="1">
         <v>303</v>
@@ -2437,13 +2522,13 @@
         <v>303</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>22</v>
@@ -2452,7 +2537,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J40" s="1">
         <v>304</v>
@@ -2466,13 +2551,13 @@
         <v>304</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>25</v>
@@ -2481,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J41" s="1">
         <v>305</v>
@@ -2495,13 +2580,13 @@
         <v>305</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>28</v>
@@ -2510,7 +2595,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J42" s="1">
         <v>306</v>
@@ -2524,13 +2609,13 @@
         <v>306</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>31</v>
@@ -2539,7 +2624,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J43" s="1">
         <v>307</v>
@@ -2553,13 +2638,13 @@
         <v>307</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>34</v>
@@ -2568,7 +2653,7 @@
         <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J44" s="1">
         <v>308</v>
@@ -2582,13 +2667,13 @@
         <v>308</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>37</v>
@@ -2597,7 +2682,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J45" s="1">
         <v>309</v>
@@ -2611,13 +2696,13 @@
         <v>309</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>40</v>
@@ -2626,7 +2711,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J46" s="1">
         <v>310</v>
@@ -2640,13 +2725,13 @@
         <v>310</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>43</v>
@@ -2655,7 +2740,7 @@
         <v>16</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J47" s="1">
         <v>311</v>
@@ -2669,13 +2754,13 @@
         <v>311</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>46</v>
@@ -2684,7 +2769,7 @@
         <v>16</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J48" s="1">
         <v>312</v>
@@ -2698,13 +2783,13 @@
         <v>312</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>49</v>
@@ -2713,7 +2798,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J49" s="1">
         <v>313</v>
@@ -2727,13 +2812,13 @@
         <v>313</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>52</v>
@@ -2742,7 +2827,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J50" s="1">
         <v>314</v>
@@ -2756,13 +2841,13 @@
         <v>314</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>55</v>
@@ -2771,12 +2856,41 @@
         <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J51" s="1">
         <v>315</v>
       </c>
       <c r="K51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:11">
+      <c r="C52" s="1">
+        <v>315</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J52" s="1">
+        <v>316</v>
+      </c>
+      <c r="K52" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2785,13 +2899,13 @@
         <v>401</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>15</v>
@@ -2800,7 +2914,7 @@
         <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J54" s="1">
         <v>402</v>
@@ -2814,13 +2928,13 @@
         <v>402</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>19</v>
@@ -2829,7 +2943,7 @@
         <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J55" s="1">
         <v>403</v>
@@ -2843,13 +2957,13 @@
         <v>403</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>22</v>
@@ -2858,7 +2972,7 @@
         <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J56" s="1">
         <v>404</v>
@@ -2872,13 +2986,13 @@
         <v>404</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>25</v>
@@ -2887,7 +3001,7 @@
         <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J57" s="1">
         <v>405</v>
@@ -2901,13 +3015,13 @@
         <v>405</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>28</v>
@@ -2916,7 +3030,7 @@
         <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="J58" s="1">
         <v>406</v>
@@ -2930,13 +3044,13 @@
         <v>406</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>31</v>
@@ -2945,7 +3059,7 @@
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="J59" s="1">
         <v>407</v>
@@ -2959,13 +3073,13 @@
         <v>407</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>34</v>
@@ -2974,7 +3088,7 @@
         <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="J60" s="1">
         <v>408</v>
@@ -2988,13 +3102,13 @@
         <v>408</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>37</v>
@@ -3003,7 +3117,7 @@
         <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="J61" s="1">
         <v>409</v>
@@ -3017,13 +3131,13 @@
         <v>409</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>40</v>
@@ -3032,7 +3146,7 @@
         <v>16</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="J62" s="1">
         <v>410</v>
@@ -3046,13 +3160,13 @@
         <v>410</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>43</v>
@@ -3061,7 +3175,7 @@
         <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="J63" s="1">
         <v>411</v>
@@ -3075,13 +3189,13 @@
         <v>411</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>46</v>
@@ -3090,7 +3204,7 @@
         <v>16</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="J64" s="1">
         <v>412</v>
@@ -3104,13 +3218,13 @@
         <v>412</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>49</v>
@@ -3119,7 +3233,7 @@
         <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J65" s="1">
         <v>413</v>
@@ -3133,13 +3247,13 @@
         <v>413</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>52</v>
@@ -3148,7 +3262,7 @@
         <v>16</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J66" s="1">
         <v>414</v>
@@ -3162,13 +3276,13 @@
         <v>414</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>55</v>
@@ -3177,12 +3291,41 @@
         <v>16</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J67" s="1">
         <v>415</v>
       </c>
       <c r="K67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:11">
+      <c r="C68" s="1">
+        <v>415</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J68" s="1">
+        <v>416</v>
+      </c>
+      <c r="K68" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="162">
   <si>
     <t>Id</t>
   </si>
@@ -209,6 +209,15 @@
     <t>斗笠十六阶</t>
   </si>
   <si>
+    <t>116,4007</t>
+  </si>
+  <si>
+    <t>1,65536</t>
+  </si>
+  <si>
+    <t>斗笠十七阶</t>
+  </si>
+  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -302,6 +311,12 @@
     <t>护盾十六阶</t>
   </si>
   <si>
+    <t>216,4007</t>
+  </si>
+  <si>
+    <t>护盾十七阶</t>
+  </si>
+  <si>
     <t>神符</t>
   </si>
   <si>
@@ -395,6 +410,12 @@
     <t>神符十六阶</t>
   </si>
   <si>
+    <t>316,4007</t>
+  </si>
+  <si>
+    <t>神符十七阶</t>
+  </si>
+  <si>
     <t>魔石</t>
   </si>
   <si>
@@ -486,6 +507,12 @@
   </si>
   <si>
     <t>魔石十六阶</t>
+  </si>
+  <si>
+    <t>416,4007</t>
+  </si>
+  <si>
+    <t>魔石十七阶</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K68"/>
+  <dimension ref="C1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2024,59 +2051,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:11">
-      <c r="C22" s="1">
-        <v>201</v>
-      </c>
-      <c r="D22" s="1" t="s">
+    <row r="21" customHeight="1" spans="3:11">
+      <c r="C21" s="1">
+        <v>116</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="H21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="1">
-        <v>202</v>
-      </c>
-      <c r="K22" s="1">
+      <c r="J21" s="1">
+        <v>117</v>
+      </c>
+      <c r="K21" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
       <c r="C23" s="1">
+        <v>201</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="1">
         <v>202</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="1">
-        <v>203</v>
       </c>
       <c r="K23" s="1">
         <v>2</v>
@@ -2084,28 +2111,28 @@
     </row>
     <row r="24" customHeight="1" spans="3:11">
       <c r="C24" s="1">
+        <v>202</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="1">
         <v>203</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="1">
-        <v>204</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
@@ -2113,28 +2140,28 @@
     </row>
     <row r="25" customHeight="1" spans="3:11">
       <c r="C25" s="1">
+        <v>203</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="1">
         <v>204</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="1">
-        <v>205</v>
       </c>
       <c r="K25" s="1">
         <v>2</v>
@@ -2142,28 +2169,28 @@
     </row>
     <row r="26" customHeight="1" spans="3:11">
       <c r="C26" s="1">
+        <v>204</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="1">
         <v>205</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="1">
-        <v>206</v>
       </c>
       <c r="K26" s="1">
         <v>2</v>
@@ -2171,28 +2198,28 @@
     </row>
     <row r="27" customHeight="1" spans="3:11">
       <c r="C27" s="1">
+        <v>205</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="1">
         <v>206</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="1">
-        <v>207</v>
       </c>
       <c r="K27" s="1">
         <v>2</v>
@@ -2200,28 +2227,28 @@
     </row>
     <row r="28" customHeight="1" spans="3:11">
       <c r="C28" s="1">
+        <v>206</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="1">
         <v>207</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="1">
-        <v>208</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
@@ -2229,28 +2256,28 @@
     </row>
     <row r="29" customHeight="1" spans="3:11">
       <c r="C29" s="1">
+        <v>207</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="1">
         <v>208</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" s="1">
-        <v>209</v>
       </c>
       <c r="K29" s="1">
         <v>2</v>
@@ -2258,28 +2285,28 @@
     </row>
     <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="1">
+        <v>208</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="1">
         <v>209</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" s="1">
-        <v>210</v>
       </c>
       <c r="K30" s="1">
         <v>2</v>
@@ -2287,28 +2314,28 @@
     </row>
     <row r="31" customHeight="1" spans="3:11">
       <c r="C31" s="1">
+        <v>209</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="1">
         <v>210</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="1">
-        <v>211</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
@@ -2316,28 +2343,28 @@
     </row>
     <row r="32" customHeight="1" spans="3:11">
       <c r="C32" s="1">
+        <v>210</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="1">
         <v>211</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="1">
-        <v>212</v>
       </c>
       <c r="K32" s="1">
         <v>2</v>
@@ -2345,28 +2372,28 @@
     </row>
     <row r="33" customHeight="1" spans="3:11">
       <c r="C33" s="1">
+        <v>211</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="1">
         <v>212</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="1">
-        <v>213</v>
       </c>
       <c r="K33" s="1">
         <v>2</v>
@@ -2374,28 +2401,28 @@
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
+        <v>212</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" s="1">
         <v>213</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" s="1">
-        <v>214</v>
       </c>
       <c r="K34" s="1">
         <v>2</v>
@@ -2403,28 +2430,28 @@
     </row>
     <row r="35" customHeight="1" spans="3:11">
       <c r="C35" s="1">
+        <v>213</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="1">
         <v>214</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J35" s="1">
-        <v>215</v>
       </c>
       <c r="K35" s="1">
         <v>2</v>
@@ -2432,115 +2459,115 @@
     </row>
     <row r="36" customHeight="1" spans="3:11">
       <c r="C36" s="1">
+        <v>214</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" s="1">
         <v>215</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:11">
+      <c r="C37" s="1">
+        <v>215</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="H37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" s="1">
         <v>216</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K37" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J38" s="1">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="K38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:11">
-      <c r="C39" s="1">
-        <v>302</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J39" s="1">
-        <v>303</v>
-      </c>
-      <c r="K39" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="1">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J40" s="1">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K40" s="1">
         <v>2</v>
@@ -2548,28 +2575,28 @@
     </row>
     <row r="41" customHeight="1" spans="3:11">
       <c r="C41" s="1">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J41" s="1">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K41" s="1">
         <v>2</v>
@@ -2577,28 +2604,28 @@
     </row>
     <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="1">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J42" s="1">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K42" s="1">
         <v>2</v>
@@ -2606,28 +2633,28 @@
     </row>
     <row r="43" customHeight="1" spans="3:11">
       <c r="C43" s="1">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J43" s="1">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K43" s="1">
         <v>2</v>
@@ -2635,28 +2662,28 @@
     </row>
     <row r="44" customHeight="1" spans="3:11">
       <c r="C44" s="1">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J44" s="1">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K44" s="1">
         <v>2</v>
@@ -2664,28 +2691,28 @@
     </row>
     <row r="45" customHeight="1" spans="3:11">
       <c r="C45" s="1">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J45" s="1">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K45" s="1">
         <v>2</v>
@@ -2693,28 +2720,28 @@
     </row>
     <row r="46" customHeight="1" spans="3:11">
       <c r="C46" s="1">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J46" s="1">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K46" s="1">
         <v>2</v>
@@ -2722,28 +2749,28 @@
     </row>
     <row r="47" customHeight="1" spans="3:11">
       <c r="C47" s="1">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J47" s="1">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K47" s="1">
         <v>2</v>
@@ -2751,28 +2778,28 @@
     </row>
     <row r="48" customHeight="1" spans="3:11">
       <c r="C48" s="1">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J48" s="1">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
@@ -2780,28 +2807,28 @@
     </row>
     <row r="49" customHeight="1" spans="3:11">
       <c r="C49" s="1">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J49" s="1">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K49" s="1">
         <v>2</v>
@@ -2809,28 +2836,28 @@
     </row>
     <row r="50" customHeight="1" spans="3:11">
       <c r="C50" s="1">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J50" s="1">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K50" s="1">
         <v>2</v>
@@ -2838,28 +2865,28 @@
     </row>
     <row r="51" customHeight="1" spans="3:11">
       <c r="C51" s="1">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J51" s="1">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K51" s="1">
         <v>2</v>
@@ -2867,57 +2894,86 @@
     </row>
     <row r="52" customHeight="1" spans="3:11">
       <c r="C52" s="1">
+        <v>313</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" s="1">
+        <v>314</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:11">
+      <c r="C53" s="1">
+        <v>314</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J53" s="1">
         <v>315</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J52" s="1">
-        <v>316</v>
-      </c>
-      <c r="K52" s="1">
+      <c r="K53" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:11">
       <c r="C54" s="1">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J54" s="1">
-        <v>402</v>
+        <v>316</v>
       </c>
       <c r="K54" s="1">
         <v>2</v>
@@ -2925,86 +2981,57 @@
     </row>
     <row r="55" customHeight="1" spans="3:11">
       <c r="C55" s="1">
-        <v>402</v>
+        <v>316</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J55" s="1">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="K55" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:11">
-      <c r="C56" s="1">
-        <v>403</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J56" s="1">
-        <v>404</v>
-      </c>
-      <c r="K56" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:11">
       <c r="C57" s="1">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J57" s="1">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K57" s="1">
         <v>2</v>
@@ -3012,28 +3039,28 @@
     </row>
     <row r="58" customHeight="1" spans="3:11">
       <c r="C58" s="1">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J58" s="1">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
@@ -3041,28 +3068,28 @@
     </row>
     <row r="59" customHeight="1" spans="3:11">
       <c r="C59" s="1">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J59" s="1">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K59" s="1">
         <v>2</v>
@@ -3070,28 +3097,28 @@
     </row>
     <row r="60" customHeight="1" spans="3:11">
       <c r="C60" s="1">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J60" s="1">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
@@ -3099,28 +3126,28 @@
     </row>
     <row r="61" customHeight="1" spans="3:11">
       <c r="C61" s="1">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J61" s="1">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K61" s="1">
         <v>2</v>
@@ -3128,28 +3155,28 @@
     </row>
     <row r="62" customHeight="1" spans="3:11">
       <c r="C62" s="1">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J62" s="1">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K62" s="1">
         <v>2</v>
@@ -3157,28 +3184,28 @@
     </row>
     <row r="63" customHeight="1" spans="3:11">
       <c r="C63" s="1">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J63" s="1">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K63" s="1">
         <v>2</v>
@@ -3186,28 +3213,28 @@
     </row>
     <row r="64" customHeight="1" spans="3:11">
       <c r="C64" s="1">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J64" s="1">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K64" s="1">
         <v>2</v>
@@ -3215,28 +3242,28 @@
     </row>
     <row r="65" customHeight="1" spans="3:11">
       <c r="C65" s="1">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J65" s="1">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K65" s="1">
         <v>2</v>
@@ -3244,28 +3271,28 @@
     </row>
     <row r="66" customHeight="1" spans="3:11">
       <c r="C66" s="1">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J66" s="1">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K66" s="1">
         <v>2</v>
@@ -3273,28 +3300,28 @@
     </row>
     <row r="67" customHeight="1" spans="3:11">
       <c r="C67" s="1">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J67" s="1">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K67" s="1">
         <v>2</v>
@@ -3302,30 +3329,146 @@
     </row>
     <row r="68" customHeight="1" spans="3:11">
       <c r="C68" s="1">
+        <v>412</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J68" s="1">
+        <v>413</v>
+      </c>
+      <c r="K68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:11">
+      <c r="C69" s="1">
+        <v>413</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J69" s="1">
+        <v>414</v>
+      </c>
+      <c r="K69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:11">
+      <c r="C70" s="1">
+        <v>414</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J70" s="1">
         <v>415</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G68" s="4" t="s">
+      <c r="K70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:11">
+      <c r="C71" s="1">
+        <v>415</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J68" s="1">
+      <c r="H71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J71" s="1">
         <v>416</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:11">
+      <c r="C72" s="1">
+        <v>416</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J72" s="1">
+        <v>417</v>
+      </c>
+      <c r="K72" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="180">
   <si>
     <t>Id</t>
   </si>
@@ -218,6 +218,24 @@
     <t>斗笠十七阶</t>
   </si>
   <si>
+    <t>117,4007</t>
+  </si>
+  <si>
+    <t>1,131072</t>
+  </si>
+  <si>
+    <t>斗笠十八阶</t>
+  </si>
+  <si>
+    <t>118,4007</t>
+  </si>
+  <si>
+    <t>1,262144</t>
+  </si>
+  <si>
+    <t>斗笠十九阶</t>
+  </si>
+  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -317,6 +335,18 @@
     <t>护盾十七阶</t>
   </si>
   <si>
+    <t>217,4007</t>
+  </si>
+  <si>
+    <t>护盾十八阶</t>
+  </si>
+  <si>
+    <t>218,4007</t>
+  </si>
+  <si>
+    <t>护盾十九阶</t>
+  </si>
+  <si>
     <t>神符</t>
   </si>
   <si>
@@ -416,6 +446,18 @@
     <t>神符十七阶</t>
   </si>
   <si>
+    <t>317,4007</t>
+  </si>
+  <si>
+    <t>神符十八阶</t>
+  </si>
+  <si>
+    <t>318,4007</t>
+  </si>
+  <si>
+    <t>神符十九阶</t>
+  </si>
+  <si>
     <t>魔石</t>
   </si>
   <si>
@@ -513,6 +555,18 @@
   </si>
   <si>
     <t>魔石十七阶</t>
+  </si>
+  <si>
+    <t>417,4007</t>
+  </si>
+  <si>
+    <t>魔石十八阶</t>
+  </si>
+  <si>
+    <t>418,4007</t>
+  </si>
+  <si>
+    <t>魔石十九阶</t>
   </si>
 </sst>
 </file>
@@ -1508,10 +1562,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K72"/>
+  <dimension ref="C3:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1524,11 +1578,9 @@
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" customHeight="1"/>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -2080,88 +2132,88 @@
         <v>2</v>
       </c>
     </row>
+    <row r="22" customHeight="1" spans="3:11">
+      <c r="C22" s="1">
+        <v>117</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="1">
+        <v>118</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="23" customHeight="1" spans="3:11">
       <c r="C23" s="1">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J23" s="1">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="K23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:11">
-      <c r="C24" s="1">
-        <v>202</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="1">
-        <v>203</v>
-      </c>
-      <c r="K24" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
       <c r="C25" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J25" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K25" s="1">
         <v>2</v>
@@ -2169,28 +2221,28 @@
     </row>
     <row r="26" customHeight="1" spans="3:11">
       <c r="C26" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J26" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K26" s="1">
         <v>2</v>
@@ -2198,28 +2250,28 @@
     </row>
     <row r="27" customHeight="1" spans="3:11">
       <c r="C27" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J27" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K27" s="1">
         <v>2</v>
@@ -2227,28 +2279,28 @@
     </row>
     <row r="28" customHeight="1" spans="3:11">
       <c r="C28" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J28" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
@@ -2256,28 +2308,28 @@
     </row>
     <row r="29" customHeight="1" spans="3:11">
       <c r="C29" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J29" s="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K29" s="1">
         <v>2</v>
@@ -2285,28 +2337,28 @@
     </row>
     <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J30" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K30" s="1">
         <v>2</v>
@@ -2314,28 +2366,28 @@
     </row>
     <row r="31" customHeight="1" spans="3:11">
       <c r="C31" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J31" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
@@ -2343,28 +2395,28 @@
     </row>
     <row r="32" customHeight="1" spans="3:11">
       <c r="C32" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J32" s="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K32" s="1">
         <v>2</v>
@@ -2372,28 +2424,28 @@
     </row>
     <row r="33" customHeight="1" spans="3:11">
       <c r="C33" s="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J33" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K33" s="1">
         <v>2</v>
@@ -2401,28 +2453,28 @@
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J34" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K34" s="1">
         <v>2</v>
@@ -2430,28 +2482,28 @@
     </row>
     <row r="35" customHeight="1" spans="3:11">
       <c r="C35" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J35" s="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K35" s="1">
         <v>2</v>
@@ -2459,28 +2511,28 @@
     </row>
     <row r="36" customHeight="1" spans="3:11">
       <c r="C36" s="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J36" s="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K36" s="1">
         <v>2</v>
@@ -2488,28 +2540,28 @@
     </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J37" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K37" s="1">
         <v>2</v>
@@ -2517,57 +2569,86 @@
     </row>
     <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
+        <v>214</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="1">
+        <v>215</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:11">
+      <c r="C39" s="1">
+        <v>215</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" s="1">
         <v>216</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38" s="1">
-        <v>217</v>
-      </c>
-      <c r="K38" s="1">
+      <c r="K39" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="1">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J40" s="1">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="K40" s="1">
         <v>2</v>
@@ -2575,28 +2656,28 @@
     </row>
     <row r="41" customHeight="1" spans="3:11">
       <c r="C41" s="1">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J41" s="1">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="K41" s="1">
         <v>2</v>
@@ -2604,86 +2685,57 @@
     </row>
     <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="1">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J42" s="1">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="K42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:11">
-      <c r="C43" s="1">
-        <v>304</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J43" s="1">
-        <v>305</v>
-      </c>
-      <c r="K43" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:11">
       <c r="C44" s="1">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J44" s="1">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K44" s="1">
         <v>2</v>
@@ -2691,28 +2743,28 @@
     </row>
     <row r="45" customHeight="1" spans="3:11">
       <c r="C45" s="1">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J45" s="1">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K45" s="1">
         <v>2</v>
@@ -2720,28 +2772,28 @@
     </row>
     <row r="46" customHeight="1" spans="3:11">
       <c r="C46" s="1">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J46" s="1">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K46" s="1">
         <v>2</v>
@@ -2749,28 +2801,28 @@
     </row>
     <row r="47" customHeight="1" spans="3:11">
       <c r="C47" s="1">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J47" s="1">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K47" s="1">
         <v>2</v>
@@ -2778,28 +2830,28 @@
     </row>
     <row r="48" customHeight="1" spans="3:11">
       <c r="C48" s="1">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J48" s="1">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
@@ -2807,28 +2859,28 @@
     </row>
     <row r="49" customHeight="1" spans="3:11">
       <c r="C49" s="1">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J49" s="1">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K49" s="1">
         <v>2</v>
@@ -2836,28 +2888,28 @@
     </row>
     <row r="50" customHeight="1" spans="3:11">
       <c r="C50" s="1">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J50" s="1">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K50" s="1">
         <v>2</v>
@@ -2865,28 +2917,28 @@
     </row>
     <row r="51" customHeight="1" spans="3:11">
       <c r="C51" s="1">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J51" s="1">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K51" s="1">
         <v>2</v>
@@ -2894,28 +2946,28 @@
     </row>
     <row r="52" customHeight="1" spans="3:11">
       <c r="C52" s="1">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J52" s="1">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K52" s="1">
         <v>2</v>
@@ -2923,28 +2975,28 @@
     </row>
     <row r="53" customHeight="1" spans="3:11">
       <c r="C53" s="1">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J53" s="1">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K53" s="1">
         <v>2</v>
@@ -2952,28 +3004,28 @@
     </row>
     <row r="54" customHeight="1" spans="3:11">
       <c r="C54" s="1">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J54" s="1">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K54" s="1">
         <v>2</v>
@@ -2981,57 +3033,86 @@
     </row>
     <row r="55" customHeight="1" spans="3:11">
       <c r="C55" s="1">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J55" s="1">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:11">
+      <c r="C56" s="1">
+        <v>313</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J56" s="1">
+        <v>314</v>
+      </c>
+      <c r="K56" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:11">
       <c r="C57" s="1">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J57" s="1">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="K57" s="1">
         <v>2</v>
@@ -3039,28 +3120,28 @@
     </row>
     <row r="58" customHeight="1" spans="3:11">
       <c r="C58" s="1">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J58" s="1">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
@@ -3068,28 +3149,28 @@
     </row>
     <row r="59" customHeight="1" spans="3:11">
       <c r="C59" s="1">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J59" s="1">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="K59" s="1">
         <v>2</v>
@@ -3097,28 +3178,28 @@
     </row>
     <row r="60" customHeight="1" spans="3:11">
       <c r="C60" s="1">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J60" s="1">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
@@ -3126,86 +3207,57 @@
     </row>
     <row r="61" customHeight="1" spans="3:11">
       <c r="C61" s="1">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J61" s="1">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="K61" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:11">
-      <c r="C62" s="1">
-        <v>406</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J62" s="1">
-        <v>407</v>
-      </c>
-      <c r="K62" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:11">
       <c r="C63" s="1">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J63" s="1">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K63" s="1">
         <v>2</v>
@@ -3213,28 +3265,28 @@
     </row>
     <row r="64" customHeight="1" spans="3:11">
       <c r="C64" s="1">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J64" s="1">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K64" s="1">
         <v>2</v>
@@ -3242,28 +3294,28 @@
     </row>
     <row r="65" customHeight="1" spans="3:11">
       <c r="C65" s="1">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J65" s="1">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K65" s="1">
         <v>2</v>
@@ -3271,28 +3323,28 @@
     </row>
     <row r="66" customHeight="1" spans="3:11">
       <c r="C66" s="1">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J66" s="1">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K66" s="1">
         <v>2</v>
@@ -3300,28 +3352,28 @@
     </row>
     <row r="67" customHeight="1" spans="3:11">
       <c r="C67" s="1">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J67" s="1">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K67" s="1">
         <v>2</v>
@@ -3329,28 +3381,28 @@
     </row>
     <row r="68" customHeight="1" spans="3:11">
       <c r="C68" s="1">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J68" s="1">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K68" s="1">
         <v>2</v>
@@ -3358,28 +3410,28 @@
     </row>
     <row r="69" customHeight="1" spans="3:11">
       <c r="C69" s="1">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J69" s="1">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K69" s="1">
         <v>2</v>
@@ -3387,28 +3439,28 @@
     </row>
     <row r="70" customHeight="1" spans="3:11">
       <c r="C70" s="1">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J70" s="1">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K70" s="1">
         <v>2</v>
@@ -3416,28 +3468,28 @@
     </row>
     <row r="71" customHeight="1" spans="3:11">
       <c r="C71" s="1">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J71" s="1">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K71" s="1">
         <v>2</v>
@@ -3445,30 +3497,262 @@
     </row>
     <row r="72" customHeight="1" spans="3:11">
       <c r="C72" s="1">
+        <v>410</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J72" s="1">
+        <v>411</v>
+      </c>
+      <c r="K72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:11">
+      <c r="C73" s="1">
+        <v>411</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J73" s="1">
+        <v>412</v>
+      </c>
+      <c r="K73" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:11">
+      <c r="C74" s="1">
+        <v>412</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J74" s="1">
+        <v>413</v>
+      </c>
+      <c r="K74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:11">
+      <c r="C75" s="1">
+        <v>413</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J75" s="1">
+        <v>414</v>
+      </c>
+      <c r="K75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:11">
+      <c r="C76" s="1">
+        <v>414</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J76" s="1">
+        <v>415</v>
+      </c>
+      <c r="K76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:11">
+      <c r="C77" s="1">
+        <v>415</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J77" s="1">
         <v>416</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G72" s="4" t="s">
+      <c r="K77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:11">
+      <c r="C78" s="1">
+        <v>416</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J72" s="1">
+      <c r="H78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J78" s="1">
         <v>417</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:11">
+      <c r="C79" s="1">
+        <v>417</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J79" s="1">
+        <v>418</v>
+      </c>
+      <c r="K79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:11">
+      <c r="C80" s="1">
+        <v>418</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J80" s="1">
+        <v>419</v>
+      </c>
+      <c r="K80" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="189">
   <si>
     <t>Id</t>
   </si>
@@ -236,6 +236,15 @@
     <t>斗笠十九阶</t>
   </si>
   <si>
+    <t>119,4007</t>
+  </si>
+  <si>
+    <t>1,524288</t>
+  </si>
+  <si>
+    <t>斗笠二十阶</t>
+  </si>
+  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -347,6 +356,12 @@
     <t>护盾十九阶</t>
   </si>
   <si>
+    <t>219,4007</t>
+  </si>
+  <si>
+    <t>护盾二十阶</t>
+  </si>
+  <si>
     <t>神符</t>
   </si>
   <si>
@@ -458,6 +473,12 @@
     <t>神符十九阶</t>
   </si>
   <si>
+    <t>319,4007</t>
+  </si>
+  <si>
+    <t>神符二十阶</t>
+  </si>
+  <si>
     <t>魔石</t>
   </si>
   <si>
@@ -567,6 +588,12 @@
   </si>
   <si>
     <t>魔石十九阶</t>
+  </si>
+  <si>
+    <t>419,4007</t>
+  </si>
+  <si>
+    <t>魔石二十阶</t>
   </si>
 </sst>
 </file>
@@ -1562,10 +1589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K80"/>
+  <dimension ref="C3:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2190,59 +2217,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:11">
-      <c r="C25" s="1">
-        <v>201</v>
-      </c>
-      <c r="D25" s="1" t="s">
+    <row r="24" customHeight="1" spans="3:11">
+      <c r="C24" s="1">
+        <v>119</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="H24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="1">
-        <v>202</v>
-      </c>
-      <c r="K25" s="1">
+      <c r="J24" s="1">
+        <v>120</v>
+      </c>
+      <c r="K24" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:11">
       <c r="C26" s="1">
+        <v>201</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="1">
         <v>202</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="1">
-        <v>203</v>
       </c>
       <c r="K26" s="1">
         <v>2</v>
@@ -2250,28 +2277,28 @@
     </row>
     <row r="27" customHeight="1" spans="3:11">
       <c r="C27" s="1">
+        <v>202</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="1">
         <v>203</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="1">
-        <v>204</v>
       </c>
       <c r="K27" s="1">
         <v>2</v>
@@ -2279,28 +2306,28 @@
     </row>
     <row r="28" customHeight="1" spans="3:11">
       <c r="C28" s="1">
+        <v>203</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="1">
         <v>204</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="1">
-        <v>205</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
@@ -2308,28 +2335,28 @@
     </row>
     <row r="29" customHeight="1" spans="3:11">
       <c r="C29" s="1">
+        <v>204</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="1">
         <v>205</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" s="1">
-        <v>206</v>
       </c>
       <c r="K29" s="1">
         <v>2</v>
@@ -2337,28 +2364,28 @@
     </row>
     <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="1">
+        <v>205</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="1">
         <v>206</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" s="1">
-        <v>207</v>
       </c>
       <c r="K30" s="1">
         <v>2</v>
@@ -2366,28 +2393,28 @@
     </row>
     <row r="31" customHeight="1" spans="3:11">
       <c r="C31" s="1">
+        <v>206</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="1">
         <v>207</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="1">
-        <v>208</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
@@ -2395,28 +2422,28 @@
     </row>
     <row r="32" customHeight="1" spans="3:11">
       <c r="C32" s="1">
+        <v>207</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="1">
         <v>208</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="1">
-        <v>209</v>
       </c>
       <c r="K32" s="1">
         <v>2</v>
@@ -2424,28 +2451,28 @@
     </row>
     <row r="33" customHeight="1" spans="3:11">
       <c r="C33" s="1">
+        <v>208</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="1">
         <v>209</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J33" s="1">
-        <v>210</v>
       </c>
       <c r="K33" s="1">
         <v>2</v>
@@ -2453,28 +2480,28 @@
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
+        <v>209</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="1">
         <v>210</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="1">
-        <v>211</v>
       </c>
       <c r="K34" s="1">
         <v>2</v>
@@ -2482,28 +2509,28 @@
     </row>
     <row r="35" customHeight="1" spans="3:11">
       <c r="C35" s="1">
+        <v>210</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="1">
         <v>211</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35" s="1">
-        <v>212</v>
       </c>
       <c r="K35" s="1">
         <v>2</v>
@@ -2511,28 +2538,28 @@
     </row>
     <row r="36" customHeight="1" spans="3:11">
       <c r="C36" s="1">
+        <v>211</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J36" s="1">
         <v>212</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J36" s="1">
-        <v>213</v>
       </c>
       <c r="K36" s="1">
         <v>2</v>
@@ -2540,28 +2567,28 @@
     </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
+        <v>212</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="1">
         <v>213</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J37" s="1">
-        <v>214</v>
       </c>
       <c r="K37" s="1">
         <v>2</v>
@@ -2569,28 +2596,28 @@
     </row>
     <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
+        <v>213</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="1">
         <v>214</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J38" s="1">
-        <v>215</v>
       </c>
       <c r="K38" s="1">
         <v>2</v>
@@ -2598,28 +2625,28 @@
     </row>
     <row r="39" customHeight="1" spans="3:11">
       <c r="C39" s="1">
+        <v>214</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="1">
         <v>215</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J39" s="1">
-        <v>216</v>
       </c>
       <c r="K39" s="1">
         <v>2</v>
@@ -2627,28 +2654,28 @@
     </row>
     <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="1">
+        <v>215</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="1">
         <v>216</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J40" s="1">
-        <v>217</v>
       </c>
       <c r="K40" s="1">
         <v>2</v>
@@ -2656,28 +2683,28 @@
     </row>
     <row r="41" customHeight="1" spans="3:11">
       <c r="C41" s="1">
+        <v>216</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" s="1">
         <v>217</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J41" s="1">
-        <v>218</v>
       </c>
       <c r="K41" s="1">
         <v>2</v>
@@ -2685,115 +2712,115 @@
     </row>
     <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="1">
+        <v>217</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" s="1">
         <v>218</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:11">
+      <c r="C43" s="1">
+        <v>218</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="H43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="1">
         <v>219</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K43" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:11">
       <c r="C44" s="1">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J44" s="1">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="K44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:11">
-      <c r="C45" s="1">
-        <v>302</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J45" s="1">
-        <v>303</v>
-      </c>
-      <c r="K45" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:11">
       <c r="C46" s="1">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J46" s="1">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K46" s="1">
         <v>2</v>
@@ -2801,28 +2828,28 @@
     </row>
     <row r="47" customHeight="1" spans="3:11">
       <c r="C47" s="1">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J47" s="1">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K47" s="1">
         <v>2</v>
@@ -2830,28 +2857,28 @@
     </row>
     <row r="48" customHeight="1" spans="3:11">
       <c r="C48" s="1">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J48" s="1">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
@@ -2859,28 +2886,28 @@
     </row>
     <row r="49" customHeight="1" spans="3:11">
       <c r="C49" s="1">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J49" s="1">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K49" s="1">
         <v>2</v>
@@ -2888,28 +2915,28 @@
     </row>
     <row r="50" customHeight="1" spans="3:11">
       <c r="C50" s="1">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J50" s="1">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K50" s="1">
         <v>2</v>
@@ -2917,28 +2944,28 @@
     </row>
     <row r="51" customHeight="1" spans="3:11">
       <c r="C51" s="1">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J51" s="1">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K51" s="1">
         <v>2</v>
@@ -2946,28 +2973,28 @@
     </row>
     <row r="52" customHeight="1" spans="3:11">
       <c r="C52" s="1">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J52" s="1">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K52" s="1">
         <v>2</v>
@@ -2975,28 +3002,28 @@
     </row>
     <row r="53" customHeight="1" spans="3:11">
       <c r="C53" s="1">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J53" s="1">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K53" s="1">
         <v>2</v>
@@ -3004,28 +3031,28 @@
     </row>
     <row r="54" customHeight="1" spans="3:11">
       <c r="C54" s="1">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J54" s="1">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K54" s="1">
         <v>2</v>
@@ -3033,28 +3060,28 @@
     </row>
     <row r="55" customHeight="1" spans="3:11">
       <c r="C55" s="1">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J55" s="1">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K55" s="1">
         <v>2</v>
@@ -3062,28 +3089,28 @@
     </row>
     <row r="56" customHeight="1" spans="3:11">
       <c r="C56" s="1">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J56" s="1">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K56" s="1">
         <v>2</v>
@@ -3091,28 +3118,28 @@
     </row>
     <row r="57" customHeight="1" spans="3:11">
       <c r="C57" s="1">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J57" s="1">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K57" s="1">
         <v>2</v>
@@ -3120,28 +3147,28 @@
     </row>
     <row r="58" customHeight="1" spans="3:11">
       <c r="C58" s="1">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J58" s="1">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
@@ -3149,28 +3176,28 @@
     </row>
     <row r="59" customHeight="1" spans="3:11">
       <c r="C59" s="1">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J59" s="1">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K59" s="1">
         <v>2</v>
@@ -3178,28 +3205,28 @@
     </row>
     <row r="60" customHeight="1" spans="3:11">
       <c r="C60" s="1">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J60" s="1">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
@@ -3207,57 +3234,86 @@
     </row>
     <row r="61" customHeight="1" spans="3:11">
       <c r="C61" s="1">
+        <v>316</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" s="1">
+        <v>317</v>
+      </c>
+      <c r="K61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:11">
+      <c r="C62" s="1">
+        <v>317</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J62" s="1">
         <v>318</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J61" s="1">
-        <v>319</v>
-      </c>
-      <c r="K61" s="1">
+      <c r="K62" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:11">
       <c r="C63" s="1">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J63" s="1">
-        <v>402</v>
+        <v>319</v>
       </c>
       <c r="K63" s="1">
         <v>2</v>
@@ -3265,86 +3321,57 @@
     </row>
     <row r="64" customHeight="1" spans="3:11">
       <c r="C64" s="1">
-        <v>402</v>
+        <v>319</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J64" s="1">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="K64" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:11">
-      <c r="C65" s="1">
-        <v>403</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J65" s="1">
-        <v>404</v>
-      </c>
-      <c r="K65" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="3:11">
       <c r="C66" s="1">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J66" s="1">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K66" s="1">
         <v>2</v>
@@ -3352,28 +3379,28 @@
     </row>
     <row r="67" customHeight="1" spans="3:11">
       <c r="C67" s="1">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J67" s="1">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K67" s="1">
         <v>2</v>
@@ -3381,28 +3408,28 @@
     </row>
     <row r="68" customHeight="1" spans="3:11">
       <c r="C68" s="1">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J68" s="1">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K68" s="1">
         <v>2</v>
@@ -3410,28 +3437,28 @@
     </row>
     <row r="69" customHeight="1" spans="3:11">
       <c r="C69" s="1">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J69" s="1">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K69" s="1">
         <v>2</v>
@@ -3439,28 +3466,28 @@
     </row>
     <row r="70" customHeight="1" spans="3:11">
       <c r="C70" s="1">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J70" s="1">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K70" s="1">
         <v>2</v>
@@ -3468,28 +3495,28 @@
     </row>
     <row r="71" customHeight="1" spans="3:11">
       <c r="C71" s="1">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J71" s="1">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K71" s="1">
         <v>2</v>
@@ -3497,28 +3524,28 @@
     </row>
     <row r="72" customHeight="1" spans="3:11">
       <c r="C72" s="1">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J72" s="1">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K72" s="1">
         <v>2</v>
@@ -3526,28 +3553,28 @@
     </row>
     <row r="73" customHeight="1" spans="3:11">
       <c r="C73" s="1">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J73" s="1">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K73" s="1">
         <v>2</v>
@@ -3555,28 +3582,28 @@
     </row>
     <row r="74" customHeight="1" spans="3:11">
       <c r="C74" s="1">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J74" s="1">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K74" s="1">
         <v>2</v>
@@ -3584,28 +3611,28 @@
     </row>
     <row r="75" customHeight="1" spans="3:11">
       <c r="C75" s="1">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J75" s="1">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K75" s="1">
         <v>2</v>
@@ -3613,28 +3640,28 @@
     </row>
     <row r="76" customHeight="1" spans="3:11">
       <c r="C76" s="1">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J76" s="1">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K76" s="1">
         <v>2</v>
@@ -3642,28 +3669,28 @@
     </row>
     <row r="77" customHeight="1" spans="3:11">
       <c r="C77" s="1">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J77" s="1">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K77" s="1">
         <v>2</v>
@@ -3671,28 +3698,28 @@
     </row>
     <row r="78" customHeight="1" spans="3:11">
       <c r="C78" s="1">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J78" s="1">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K78" s="1">
         <v>2</v>
@@ -3700,28 +3727,28 @@
     </row>
     <row r="79" customHeight="1" spans="3:11">
       <c r="C79" s="1">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J79" s="1">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K79" s="1">
         <v>2</v>
@@ -3729,30 +3756,146 @@
     </row>
     <row r="80" customHeight="1" spans="3:11">
       <c r="C80" s="1">
+        <v>415</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J80" s="1">
+        <v>416</v>
+      </c>
+      <c r="K80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:11">
+      <c r="C81" s="1">
+        <v>416</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J81" s="1">
+        <v>417</v>
+      </c>
+      <c r="K81" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:11">
+      <c r="C82" s="1">
+        <v>417</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J82" s="1">
         <v>418</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G80" s="4" t="s">
+      <c r="K82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:11">
+      <c r="C83" s="1">
+        <v>418</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J80" s="1">
+      <c r="H83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J83" s="1">
         <v>419</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K83" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:11">
+      <c r="C84" s="1">
+        <v>419</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J84" s="1">
+        <v>420</v>
+      </c>
+      <c r="K84" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="194">
   <si>
     <t>Id</t>
   </si>
@@ -594,6 +594,21 @@
   </si>
   <si>
     <t>魔石二十阶</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>4015,4201</t>
+  </si>
+  <si>
+    <t>5,10</t>
+  </si>
+  <si>
+    <t>红装精华</t>
   </si>
 </sst>
 </file>
@@ -1589,10 +1604,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K84"/>
+  <dimension ref="C3:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3899,6 +3914,35 @@
         <v>2</v>
       </c>
     </row>
+    <row r="86" customHeight="1" spans="3:11">
+      <c r="C86" s="1">
+        <v>501</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J86" s="1">
+        <v>4011</v>
+      </c>
+      <c r="K86" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 F3 G3 H3 E4 F4 G4 H4 E5 F5 G5 H5" errorStyle="warning">

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="203">
   <si>
     <t>Id</t>
   </si>
@@ -245,6 +245,15 @@
     <t>斗笠二十阶</t>
   </si>
   <si>
+    <t>120,4007</t>
+  </si>
+  <si>
+    <t>1,1048576</t>
+  </si>
+  <si>
+    <t>斗笠二一阶</t>
+  </si>
+  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -362,6 +371,12 @@
     <t>护盾二十阶</t>
   </si>
   <si>
+    <t>220,4007</t>
+  </si>
+  <si>
+    <t>护盾二一阶</t>
+  </si>
+  <si>
     <t>神符</t>
   </si>
   <si>
@@ -479,6 +494,12 @@
     <t>神符二十阶</t>
   </si>
   <si>
+    <t>320,4007</t>
+  </si>
+  <si>
+    <t>神符二一阶</t>
+  </si>
+  <si>
     <t>魔石</t>
   </si>
   <si>
@@ -594,6 +615,12 @@
   </si>
   <si>
     <t>魔石二十阶</t>
+  </si>
+  <si>
+    <t>420,4007</t>
+  </si>
+  <si>
+    <t>魔石二一阶</t>
   </si>
   <si>
     <t>其他</t>
@@ -1604,10 +1631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K86"/>
+  <dimension ref="C3:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2261,59 +2288,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:11">
-      <c r="C26" s="1">
-        <v>201</v>
-      </c>
-      <c r="D26" s="1" t="s">
+    <row r="25" customHeight="1" spans="3:11">
+      <c r="C25" s="1">
+        <v>120</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="1">
-        <v>202</v>
-      </c>
-      <c r="K26" s="1">
+      <c r="J25" s="1">
+        <v>121</v>
+      </c>
+      <c r="K25" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:11">
       <c r="C27" s="1">
+        <v>201</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="1">
         <v>202</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="1">
-        <v>203</v>
       </c>
       <c r="K27" s="1">
         <v>2</v>
@@ -2321,28 +2348,28 @@
     </row>
     <row r="28" customHeight="1" spans="3:11">
       <c r="C28" s="1">
+        <v>202</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="1">
         <v>203</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" s="1">
-        <v>204</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
@@ -2350,28 +2377,28 @@
     </row>
     <row r="29" customHeight="1" spans="3:11">
       <c r="C29" s="1">
+        <v>203</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="1">
         <v>204</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="1">
-        <v>205</v>
       </c>
       <c r="K29" s="1">
         <v>2</v>
@@ -2379,28 +2406,28 @@
     </row>
     <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="1">
+        <v>204</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="1">
         <v>205</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" s="1">
-        <v>206</v>
       </c>
       <c r="K30" s="1">
         <v>2</v>
@@ -2408,28 +2435,28 @@
     </row>
     <row r="31" customHeight="1" spans="3:11">
       <c r="C31" s="1">
+        <v>205</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="1">
         <v>206</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J31" s="1">
-        <v>207</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
@@ -2437,28 +2464,28 @@
     </row>
     <row r="32" customHeight="1" spans="3:11">
       <c r="C32" s="1">
+        <v>206</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="1">
         <v>207</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="1">
-        <v>208</v>
       </c>
       <c r="K32" s="1">
         <v>2</v>
@@ -2466,28 +2493,28 @@
     </row>
     <row r="33" customHeight="1" spans="3:11">
       <c r="C33" s="1">
+        <v>207</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="1">
         <v>208</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33" s="1">
-        <v>209</v>
       </c>
       <c r="K33" s="1">
         <v>2</v>
@@ -2495,28 +2522,28 @@
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
+        <v>208</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="1">
         <v>209</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J34" s="1">
-        <v>210</v>
       </c>
       <c r="K34" s="1">
         <v>2</v>
@@ -2524,28 +2551,28 @@
     </row>
     <row r="35" customHeight="1" spans="3:11">
       <c r="C35" s="1">
+        <v>209</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="1">
         <v>210</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J35" s="1">
-        <v>211</v>
       </c>
       <c r="K35" s="1">
         <v>2</v>
@@ -2553,28 +2580,28 @@
     </row>
     <row r="36" customHeight="1" spans="3:11">
       <c r="C36" s="1">
+        <v>210</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="1">
         <v>211</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J36" s="1">
-        <v>212</v>
       </c>
       <c r="K36" s="1">
         <v>2</v>
@@ -2582,28 +2609,28 @@
     </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
+        <v>211</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" s="1">
         <v>212</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J37" s="1">
-        <v>213</v>
       </c>
       <c r="K37" s="1">
         <v>2</v>
@@ -2611,28 +2638,28 @@
     </row>
     <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
+        <v>212</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="1">
         <v>213</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J38" s="1">
-        <v>214</v>
       </c>
       <c r="K38" s="1">
         <v>2</v>
@@ -2640,28 +2667,28 @@
     </row>
     <row r="39" customHeight="1" spans="3:11">
       <c r="C39" s="1">
+        <v>213</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" s="1">
         <v>214</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J39" s="1">
-        <v>215</v>
       </c>
       <c r="K39" s="1">
         <v>2</v>
@@ -2669,28 +2696,28 @@
     </row>
     <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="1">
+        <v>214</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J40" s="1">
         <v>215</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J40" s="1">
-        <v>216</v>
       </c>
       <c r="K40" s="1">
         <v>2</v>
@@ -2698,28 +2725,28 @@
     </row>
     <row r="41" customHeight="1" spans="3:11">
       <c r="C41" s="1">
+        <v>215</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41" s="1">
         <v>216</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J41" s="1">
-        <v>217</v>
       </c>
       <c r="K41" s="1">
         <v>2</v>
@@ -2727,28 +2754,28 @@
     </row>
     <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="1">
+        <v>216</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J42" s="1">
         <v>217</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J42" s="1">
-        <v>218</v>
       </c>
       <c r="K42" s="1">
         <v>2</v>
@@ -2756,28 +2783,28 @@
     </row>
     <row r="43" customHeight="1" spans="3:11">
       <c r="C43" s="1">
+        <v>217</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" s="1">
         <v>218</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J43" s="1">
-        <v>219</v>
       </c>
       <c r="K43" s="1">
         <v>2</v>
@@ -2785,115 +2812,115 @@
     </row>
     <row r="44" customHeight="1" spans="3:11">
       <c r="C44" s="1">
+        <v>218</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J44" s="1">
         <v>219</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="K44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:11">
+      <c r="C45" s="1">
+        <v>219</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="H45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" s="1">
         <v>220</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K45" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:11">
       <c r="C46" s="1">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J46" s="1">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c r="K46" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:11">
-      <c r="C47" s="1">
-        <v>302</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J47" s="1">
-        <v>303</v>
-      </c>
-      <c r="K47" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:11">
       <c r="C48" s="1">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J48" s="1">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
@@ -2901,28 +2928,28 @@
     </row>
     <row r="49" customHeight="1" spans="3:11">
       <c r="C49" s="1">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J49" s="1">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K49" s="1">
         <v>2</v>
@@ -2930,28 +2957,28 @@
     </row>
     <row r="50" customHeight="1" spans="3:11">
       <c r="C50" s="1">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J50" s="1">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K50" s="1">
         <v>2</v>
@@ -2959,28 +2986,28 @@
     </row>
     <row r="51" customHeight="1" spans="3:11">
       <c r="C51" s="1">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J51" s="1">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K51" s="1">
         <v>2</v>
@@ -2988,28 +3015,28 @@
     </row>
     <row r="52" customHeight="1" spans="3:11">
       <c r="C52" s="1">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J52" s="1">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K52" s="1">
         <v>2</v>
@@ -3017,28 +3044,28 @@
     </row>
     <row r="53" customHeight="1" spans="3:11">
       <c r="C53" s="1">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J53" s="1">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K53" s="1">
         <v>2</v>
@@ -3046,28 +3073,28 @@
     </row>
     <row r="54" customHeight="1" spans="3:11">
       <c r="C54" s="1">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J54" s="1">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K54" s="1">
         <v>2</v>
@@ -3075,28 +3102,28 @@
     </row>
     <row r="55" customHeight="1" spans="3:11">
       <c r="C55" s="1">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J55" s="1">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K55" s="1">
         <v>2</v>
@@ -3104,28 +3131,28 @@
     </row>
     <row r="56" customHeight="1" spans="3:11">
       <c r="C56" s="1">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J56" s="1">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K56" s="1">
         <v>2</v>
@@ -3133,28 +3160,28 @@
     </row>
     <row r="57" customHeight="1" spans="3:11">
       <c r="C57" s="1">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J57" s="1">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K57" s="1">
         <v>2</v>
@@ -3162,28 +3189,28 @@
     </row>
     <row r="58" customHeight="1" spans="3:11">
       <c r="C58" s="1">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J58" s="1">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
@@ -3191,28 +3218,28 @@
     </row>
     <row r="59" customHeight="1" spans="3:11">
       <c r="C59" s="1">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J59" s="1">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K59" s="1">
         <v>2</v>
@@ -3220,28 +3247,28 @@
     </row>
     <row r="60" customHeight="1" spans="3:11">
       <c r="C60" s="1">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J60" s="1">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
@@ -3249,28 +3276,28 @@
     </row>
     <row r="61" customHeight="1" spans="3:11">
       <c r="C61" s="1">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J61" s="1">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K61" s="1">
         <v>2</v>
@@ -3278,28 +3305,28 @@
     </row>
     <row r="62" customHeight="1" spans="3:11">
       <c r="C62" s="1">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J62" s="1">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K62" s="1">
         <v>2</v>
@@ -3307,28 +3334,28 @@
     </row>
     <row r="63" customHeight="1" spans="3:11">
       <c r="C63" s="1">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J63" s="1">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K63" s="1">
         <v>2</v>
@@ -3336,57 +3363,86 @@
     </row>
     <row r="64" customHeight="1" spans="3:11">
       <c r="C64" s="1">
+        <v>317</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J64" s="1">
+        <v>318</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:11">
+      <c r="C65" s="1">
+        <v>318</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J65" s="1">
         <v>319</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J64" s="1">
-        <v>320</v>
-      </c>
-      <c r="K64" s="1">
+      <c r="K65" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="3:11">
       <c r="C66" s="1">
-        <v>401</v>
+        <v>319</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J66" s="1">
-        <v>402</v>
+        <v>320</v>
       </c>
       <c r="K66" s="1">
         <v>2</v>
@@ -3394,86 +3450,57 @@
     </row>
     <row r="67" customHeight="1" spans="3:11">
       <c r="C67" s="1">
-        <v>402</v>
+        <v>320</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J67" s="1">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="K67" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="3:11">
-      <c r="C68" s="1">
-        <v>403</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J68" s="1">
-        <v>404</v>
-      </c>
-      <c r="K68" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="3:11">
       <c r="C69" s="1">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J69" s="1">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K69" s="1">
         <v>2</v>
@@ -3481,28 +3508,28 @@
     </row>
     <row r="70" customHeight="1" spans="3:11">
       <c r="C70" s="1">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J70" s="1">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K70" s="1">
         <v>2</v>
@@ -3510,28 +3537,28 @@
     </row>
     <row r="71" customHeight="1" spans="3:11">
       <c r="C71" s="1">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J71" s="1">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K71" s="1">
         <v>2</v>
@@ -3539,28 +3566,28 @@
     </row>
     <row r="72" customHeight="1" spans="3:11">
       <c r="C72" s="1">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J72" s="1">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K72" s="1">
         <v>2</v>
@@ -3568,28 +3595,28 @@
     </row>
     <row r="73" customHeight="1" spans="3:11">
       <c r="C73" s="1">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J73" s="1">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K73" s="1">
         <v>2</v>
@@ -3597,28 +3624,28 @@
     </row>
     <row r="74" customHeight="1" spans="3:11">
       <c r="C74" s="1">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J74" s="1">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K74" s="1">
         <v>2</v>
@@ -3626,28 +3653,28 @@
     </row>
     <row r="75" customHeight="1" spans="3:11">
       <c r="C75" s="1">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J75" s="1">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K75" s="1">
         <v>2</v>
@@ -3655,28 +3682,28 @@
     </row>
     <row r="76" customHeight="1" spans="3:11">
       <c r="C76" s="1">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J76" s="1">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K76" s="1">
         <v>2</v>
@@ -3684,28 +3711,28 @@
     </row>
     <row r="77" customHeight="1" spans="3:11">
       <c r="C77" s="1">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J77" s="1">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K77" s="1">
         <v>2</v>
@@ -3713,28 +3740,28 @@
     </row>
     <row r="78" customHeight="1" spans="3:11">
       <c r="C78" s="1">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J78" s="1">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K78" s="1">
         <v>2</v>
@@ -3742,28 +3769,28 @@
     </row>
     <row r="79" customHeight="1" spans="3:11">
       <c r="C79" s="1">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J79" s="1">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K79" s="1">
         <v>2</v>
@@ -3771,28 +3798,28 @@
     </row>
     <row r="80" customHeight="1" spans="3:11">
       <c r="C80" s="1">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J80" s="1">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K80" s="1">
         <v>2</v>
@@ -3800,28 +3827,28 @@
     </row>
     <row r="81" customHeight="1" spans="3:11">
       <c r="C81" s="1">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J81" s="1">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K81" s="1">
         <v>2</v>
@@ -3829,28 +3856,28 @@
     </row>
     <row r="82" customHeight="1" spans="3:11">
       <c r="C82" s="1">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J82" s="1">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K82" s="1">
         <v>2</v>
@@ -3858,28 +3885,28 @@
     </row>
     <row r="83" customHeight="1" spans="3:11">
       <c r="C83" s="1">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J83" s="1">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K83" s="1">
         <v>2</v>
@@ -3887,48 +3914,77 @@
     </row>
     <row r="84" customHeight="1" spans="3:11">
       <c r="C84" s="1">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J84" s="1">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K84" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:11">
+      <c r="C85" s="1">
+        <v>417</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J85" s="1">
+        <v>418</v>
+      </c>
+      <c r="K85" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="3:11">
       <c r="C86" s="1">
-        <v>501</v>
+        <v>418</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>16</v>
@@ -3937,9 +3993,96 @@
         <v>193</v>
       </c>
       <c r="J86" s="1">
+        <v>419</v>
+      </c>
+      <c r="K86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:11">
+      <c r="C87" s="1">
+        <v>419</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J87" s="1">
+        <v>420</v>
+      </c>
+      <c r="K87" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:11">
+      <c r="C88" s="1">
+        <v>420</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J88" s="1">
+        <v>421</v>
+      </c>
+      <c r="K88" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:11">
+      <c r="C90" s="1">
+        <v>501</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J90" s="1">
         <v>4011</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K90" s="1">
         <v>5</v>
       </c>
     </row>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="208">
   <si>
     <t>Id</t>
   </si>
@@ -254,6 +254,12 @@
     <t>斗笠二一阶</t>
   </si>
   <si>
+    <t>1,2100000</t>
+  </si>
+  <si>
+    <t>斗笠二二阶</t>
+  </si>
+  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -377,6 +383,9 @@
     <t>护盾二一阶</t>
   </si>
   <si>
+    <t>护盾二二阶</t>
+  </si>
+  <si>
     <t>神符</t>
   </si>
   <si>
@@ -500,6 +509,9 @@
     <t>神符二一阶</t>
   </si>
   <si>
+    <t>神符二二阶</t>
+  </si>
+  <si>
     <t>魔石</t>
   </si>
   <si>
@@ -621,6 +633,9 @@
   </si>
   <si>
     <t>魔石二一阶</t>
+  </si>
+  <si>
+    <t>魔石二二阶</t>
   </si>
   <si>
     <t>其他</t>
@@ -1631,10 +1646,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K90"/>
+  <dimension ref="C3:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2317,117 +2332,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:11">
-      <c r="C27" s="1">
-        <v>201</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    <row r="26" customHeight="1" spans="3:11">
+      <c r="C26" s="1">
+        <v>121</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="H26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="1">
-        <v>202</v>
-      </c>
-      <c r="K27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:11">
-      <c r="C28" s="1">
-        <v>202</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="1">
-        <v>203</v>
-      </c>
-      <c r="K28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:11">
-      <c r="C29" s="1">
-        <v>203</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29" s="1">
-        <v>204</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="J26" s="1">
+        <v>122</v>
+      </c>
+      <c r="K26" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J30" s="1">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K30" s="1">
         <v>2</v>
@@ -2435,28 +2392,28 @@
     </row>
     <row r="31" customHeight="1" spans="3:11">
       <c r="C31" s="1">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J31" s="1">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
@@ -2464,28 +2421,28 @@
     </row>
     <row r="32" customHeight="1" spans="3:11">
       <c r="C32" s="1">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J32" s="1">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K32" s="1">
         <v>2</v>
@@ -2493,28 +2450,28 @@
     </row>
     <row r="33" customHeight="1" spans="3:11">
       <c r="C33" s="1">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J33" s="1">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K33" s="1">
         <v>2</v>
@@ -2522,28 +2479,28 @@
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J34" s="1">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K34" s="1">
         <v>2</v>
@@ -2551,28 +2508,28 @@
     </row>
     <row r="35" customHeight="1" spans="3:11">
       <c r="C35" s="1">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J35" s="1">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K35" s="1">
         <v>2</v>
@@ -2580,28 +2537,28 @@
     </row>
     <row r="36" customHeight="1" spans="3:11">
       <c r="C36" s="1">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J36" s="1">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K36" s="1">
         <v>2</v>
@@ -2609,28 +2566,28 @@
     </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J37" s="1">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K37" s="1">
         <v>2</v>
@@ -2638,28 +2595,28 @@
     </row>
     <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J38" s="1">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K38" s="1">
         <v>2</v>
@@ -2667,28 +2624,28 @@
     </row>
     <row r="39" customHeight="1" spans="3:11">
       <c r="C39" s="1">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J39" s="1">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K39" s="1">
         <v>2</v>
@@ -2696,28 +2653,28 @@
     </row>
     <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="1">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J40" s="1">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K40" s="1">
         <v>2</v>
@@ -2725,28 +2682,28 @@
     </row>
     <row r="41" customHeight="1" spans="3:11">
       <c r="C41" s="1">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J41" s="1">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K41" s="1">
         <v>2</v>
@@ -2754,28 +2711,28 @@
     </row>
     <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="1">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J42" s="1">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K42" s="1">
         <v>2</v>
@@ -2783,28 +2740,28 @@
     </row>
     <row r="43" customHeight="1" spans="3:11">
       <c r="C43" s="1">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J43" s="1">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K43" s="1">
         <v>2</v>
@@ -2812,28 +2769,28 @@
     </row>
     <row r="44" customHeight="1" spans="3:11">
       <c r="C44" s="1">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J44" s="1">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K44" s="1">
         <v>2</v>
@@ -2841,28 +2798,28 @@
     </row>
     <row r="45" customHeight="1" spans="3:11">
       <c r="C45" s="1">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J45" s="1">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K45" s="1">
         <v>2</v>
@@ -2870,57 +2827,86 @@
     </row>
     <row r="46" customHeight="1" spans="3:11">
       <c r="C46" s="1">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J46" s="1">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:11">
+      <c r="C47" s="1">
+        <v>218</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J47" s="1">
+        <v>219</v>
+      </c>
+      <c r="K47" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:11">
       <c r="C48" s="1">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J48" s="1">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
@@ -2928,28 +2914,28 @@
     </row>
     <row r="49" customHeight="1" spans="3:11">
       <c r="C49" s="1">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="G49" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J49" s="1">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="K49" s="1">
         <v>2</v>
@@ -2957,144 +2943,57 @@
     </row>
     <row r="50" customHeight="1" spans="3:11">
       <c r="C50" s="1">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="G50" s="4" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J50" s="1">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="K50" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:11">
-      <c r="C51" s="1">
-        <v>304</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J51" s="1">
-        <v>305</v>
-      </c>
-      <c r="K51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:11">
-      <c r="C52" s="1">
-        <v>305</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J52" s="1">
-        <v>306</v>
-      </c>
-      <c r="K52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:11">
-      <c r="C53" s="1">
-        <v>306</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J53" s="1">
-        <v>307</v>
-      </c>
-      <c r="K53" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:11">
       <c r="C54" s="1">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J54" s="1">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K54" s="1">
         <v>2</v>
@@ -3102,28 +3001,28 @@
     </row>
     <row r="55" customHeight="1" spans="3:11">
       <c r="C55" s="1">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J55" s="1">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K55" s="1">
         <v>2</v>
@@ -3131,28 +3030,28 @@
     </row>
     <row r="56" customHeight="1" spans="3:11">
       <c r="C56" s="1">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J56" s="1">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K56" s="1">
         <v>2</v>
@@ -3160,28 +3059,28 @@
     </row>
     <row r="57" customHeight="1" spans="3:11">
       <c r="C57" s="1">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="J57" s="1">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K57" s="1">
         <v>2</v>
@@ -3189,28 +3088,28 @@
     </row>
     <row r="58" customHeight="1" spans="3:11">
       <c r="C58" s="1">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J58" s="1">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
@@ -3218,28 +3117,28 @@
     </row>
     <row r="59" customHeight="1" spans="3:11">
       <c r="C59" s="1">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J59" s="1">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K59" s="1">
         <v>2</v>
@@ -3247,28 +3146,28 @@
     </row>
     <row r="60" customHeight="1" spans="3:11">
       <c r="C60" s="1">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J60" s="1">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
@@ -3276,28 +3175,28 @@
     </row>
     <row r="61" customHeight="1" spans="3:11">
       <c r="C61" s="1">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J61" s="1">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K61" s="1">
         <v>2</v>
@@ -3305,28 +3204,28 @@
     </row>
     <row r="62" customHeight="1" spans="3:11">
       <c r="C62" s="1">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J62" s="1">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K62" s="1">
         <v>2</v>
@@ -3334,28 +3233,28 @@
     </row>
     <row r="63" customHeight="1" spans="3:11">
       <c r="C63" s="1">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="J63" s="1">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K63" s="1">
         <v>2</v>
@@ -3363,28 +3262,28 @@
     </row>
     <row r="64" customHeight="1" spans="3:11">
       <c r="C64" s="1">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J64" s="1">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K64" s="1">
         <v>2</v>
@@ -3392,28 +3291,28 @@
     </row>
     <row r="65" customHeight="1" spans="3:11">
       <c r="C65" s="1">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J65" s="1">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K65" s="1">
         <v>2</v>
@@ -3421,28 +3320,28 @@
     </row>
     <row r="66" customHeight="1" spans="3:11">
       <c r="C66" s="1">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J66" s="1">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K66" s="1">
         <v>2</v>
@@ -3450,57 +3349,86 @@
     </row>
     <row r="67" customHeight="1" spans="3:11">
       <c r="C67" s="1">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="J67" s="1">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:11">
+      <c r="C68" s="1">
+        <v>315</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J68" s="1">
+        <v>316</v>
+      </c>
+      <c r="K68" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="3:11">
       <c r="C69" s="1">
-        <v>401</v>
+        <v>316</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J69" s="1">
-        <v>402</v>
+        <v>317</v>
       </c>
       <c r="K69" s="1">
         <v>2</v>
@@ -3508,28 +3436,28 @@
     </row>
     <row r="70" customHeight="1" spans="3:11">
       <c r="C70" s="1">
-        <v>402</v>
+        <v>317</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="J70" s="1">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="K70" s="1">
         <v>2</v>
@@ -3537,28 +3465,28 @@
     </row>
     <row r="71" customHeight="1" spans="3:11">
       <c r="C71" s="1">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J71" s="1">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="K71" s="1">
         <v>2</v>
@@ -3566,28 +3494,28 @@
     </row>
     <row r="72" customHeight="1" spans="3:11">
       <c r="C72" s="1">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="J72" s="1">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="K72" s="1">
         <v>2</v>
@@ -3595,28 +3523,28 @@
     </row>
     <row r="73" customHeight="1" spans="3:11">
       <c r="C73" s="1">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J73" s="1">
-        <v>406</v>
+        <v>321</v>
       </c>
       <c r="K73" s="1">
         <v>2</v>
@@ -3624,144 +3552,57 @@
     </row>
     <row r="74" customHeight="1" spans="3:11">
       <c r="C74" s="1">
-        <v>406</v>
+        <v>321</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J74" s="1">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="K74" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="3:11">
-      <c r="C75" s="1">
-        <v>407</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J75" s="1">
-        <v>408</v>
-      </c>
-      <c r="K75" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="3:11">
-      <c r="C76" s="1">
-        <v>408</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J76" s="1">
-        <v>409</v>
-      </c>
-      <c r="K76" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:11">
-      <c r="C77" s="1">
-        <v>409</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J77" s="1">
-        <v>410</v>
-      </c>
-      <c r="K77" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:11">
       <c r="C78" s="1">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="J78" s="1">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K78" s="1">
         <v>2</v>
@@ -3769,28 +3610,28 @@
     </row>
     <row r="79" customHeight="1" spans="3:11">
       <c r="C79" s="1">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="J79" s="1">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K79" s="1">
         <v>2</v>
@@ -3798,28 +3639,28 @@
     </row>
     <row r="80" customHeight="1" spans="3:11">
       <c r="C80" s="1">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="J80" s="1">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K80" s="1">
         <v>2</v>
@@ -3827,28 +3668,28 @@
     </row>
     <row r="81" customHeight="1" spans="3:11">
       <c r="C81" s="1">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="J81" s="1">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K81" s="1">
         <v>2</v>
@@ -3856,28 +3697,28 @@
     </row>
     <row r="82" customHeight="1" spans="3:11">
       <c r="C82" s="1">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J82" s="1">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="K82" s="1">
         <v>2</v>
@@ -3885,28 +3726,28 @@
     </row>
     <row r="83" customHeight="1" spans="3:11">
       <c r="C83" s="1">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="J83" s="1">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="K83" s="1">
         <v>2</v>
@@ -3914,28 +3755,28 @@
     </row>
     <row r="84" customHeight="1" spans="3:11">
       <c r="C84" s="1">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="J84" s="1">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="K84" s="1">
         <v>2</v>
@@ -3943,28 +3784,28 @@
     </row>
     <row r="85" customHeight="1" spans="3:11">
       <c r="C85" s="1">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="J85" s="1">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="K85" s="1">
         <v>2</v>
@@ -3972,28 +3813,28 @@
     </row>
     <row r="86" customHeight="1" spans="3:11">
       <c r="C86" s="1">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="J86" s="1">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="K86" s="1">
         <v>2</v>
@@ -4001,28 +3842,28 @@
     </row>
     <row r="87" customHeight="1" spans="3:11">
       <c r="C87" s="1">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="J87" s="1">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K87" s="1">
         <v>2</v>
@@ -4030,59 +3871,349 @@
     </row>
     <row r="88" customHeight="1" spans="3:11">
       <c r="C88" s="1">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="J88" s="1">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="K88" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:11">
+      <c r="C89" s="1">
+        <v>412</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J89" s="1">
+        <v>413</v>
+      </c>
+      <c r="K89" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="3:11">
       <c r="C90" s="1">
+        <v>413</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J90" s="1">
+        <v>414</v>
+      </c>
+      <c r="K90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:11">
+      <c r="C91" s="1">
+        <v>414</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J91" s="1">
+        <v>415</v>
+      </c>
+      <c r="K91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:11">
+      <c r="C92" s="1">
+        <v>415</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J92" s="1">
+        <v>416</v>
+      </c>
+      <c r="K92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:11">
+      <c r="C93" s="1">
+        <v>416</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J93" s="1">
+        <v>417</v>
+      </c>
+      <c r="K93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:11">
+      <c r="C94" s="1">
+        <v>417</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J94" s="1">
+        <v>418</v>
+      </c>
+      <c r="K94" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:11">
+      <c r="C95" s="1">
+        <v>418</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J95" s="1">
+        <v>419</v>
+      </c>
+      <c r="K95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:11">
+      <c r="C96" s="1">
+        <v>419</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J96" s="1">
+        <v>420</v>
+      </c>
+      <c r="K96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:11">
+      <c r="C97" s="1">
+        <v>420</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J97" s="1">
+        <v>421</v>
+      </c>
+      <c r="K97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:11">
+      <c r="C98" s="1">
+        <v>421</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J98" s="1">
+        <v>422</v>
+      </c>
+      <c r="K98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:11">
+      <c r="C101" s="1">
         <v>501</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J90" s="1">
+      <c r="D101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J101" s="1">
         <v>4011</v>
       </c>
-      <c r="K90" s="1">
+      <c r="K101" s="1">
         <v>5</v>
       </c>
     </row>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="212">
   <si>
     <t>Id</t>
   </si>
@@ -254,6 +254,9 @@
     <t>斗笠二一阶</t>
   </si>
   <si>
+    <t>121,4007</t>
+  </si>
+  <si>
     <t>1,2100000</t>
   </si>
   <si>
@@ -383,6 +386,9 @@
     <t>护盾二一阶</t>
   </si>
   <si>
+    <t>221,4007</t>
+  </si>
+  <si>
     <t>护盾二二阶</t>
   </si>
   <si>
@@ -509,6 +515,9 @@
     <t>神符二一阶</t>
   </si>
   <si>
+    <t>321,4007</t>
+  </si>
+  <si>
     <t>神符二二阶</t>
   </si>
   <si>
@@ -633,6 +642,9 @@
   </si>
   <si>
     <t>魔石二一阶</t>
+  </si>
+  <si>
+    <t>421,4007</t>
   </si>
   <si>
     <t>魔石二二阶</t>
@@ -1648,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="C3:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="N97" sqref="N97"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2343,16 +2355,16 @@
         <v>13</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J26" s="1">
         <v>122</v>
@@ -2366,13 +2378,13 @@
         <v>201</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>15</v>
@@ -2381,7 +2393,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J30" s="1">
         <v>202</v>
@@ -2395,13 +2407,13 @@
         <v>202</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>19</v>
@@ -2410,7 +2422,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J31" s="1">
         <v>203</v>
@@ -2424,13 +2436,13 @@
         <v>203</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>22</v>
@@ -2439,7 +2451,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" s="1">
         <v>204</v>
@@ -2453,13 +2465,13 @@
         <v>204</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>25</v>
@@ -2468,7 +2480,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J33" s="1">
         <v>205</v>
@@ -2482,13 +2494,13 @@
         <v>205</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>28</v>
@@ -2497,7 +2509,7 @@
         <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J34" s="1">
         <v>206</v>
@@ -2511,13 +2523,13 @@
         <v>206</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>31</v>
@@ -2526,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J35" s="1">
         <v>207</v>
@@ -2540,13 +2552,13 @@
         <v>207</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>34</v>
@@ -2555,7 +2567,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J36" s="1">
         <v>208</v>
@@ -2569,13 +2581,13 @@
         <v>208</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>37</v>
@@ -2584,7 +2596,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J37" s="1">
         <v>209</v>
@@ -2598,13 +2610,13 @@
         <v>209</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>40</v>
@@ -2613,7 +2625,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J38" s="1">
         <v>210</v>
@@ -2627,13 +2639,13 @@
         <v>210</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>43</v>
@@ -2642,7 +2654,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J39" s="1">
         <v>211</v>
@@ -2656,13 +2668,13 @@
         <v>211</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>46</v>
@@ -2671,7 +2683,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J40" s="1">
         <v>212</v>
@@ -2685,13 +2697,13 @@
         <v>212</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>49</v>
@@ -2700,7 +2712,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J41" s="1">
         <v>213</v>
@@ -2714,13 +2726,13 @@
         <v>213</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>52</v>
@@ -2729,7 +2741,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J42" s="1">
         <v>214</v>
@@ -2743,13 +2755,13 @@
         <v>214</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>55</v>
@@ -2758,7 +2770,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J43" s="1">
         <v>215</v>
@@ -2772,13 +2784,13 @@
         <v>215</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>58</v>
@@ -2787,7 +2799,7 @@
         <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J44" s="1">
         <v>216</v>
@@ -2801,13 +2813,13 @@
         <v>216</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>61</v>
@@ -2816,7 +2828,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J45" s="1">
         <v>217</v>
@@ -2830,13 +2842,13 @@
         <v>217</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>64</v>
@@ -2845,7 +2857,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J46" s="1">
         <v>218</v>
@@ -2859,13 +2871,13 @@
         <v>218</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>67</v>
@@ -2874,7 +2886,7 @@
         <v>16</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J47" s="1">
         <v>219</v>
@@ -2888,13 +2900,13 @@
         <v>219</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>70</v>
@@ -2903,7 +2915,7 @@
         <v>16</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J48" s="1">
         <v>220</v>
@@ -2917,13 +2929,13 @@
         <v>220</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>73</v>
@@ -2932,7 +2944,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J49" s="1">
         <v>221</v>
@@ -2946,22 +2958,22 @@
         <v>221</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J50" s="1">
         <v>222</v>
@@ -2975,13 +2987,13 @@
         <v>301</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>15</v>
@@ -2990,7 +3002,7 @@
         <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J54" s="1">
         <v>302</v>
@@ -3004,13 +3016,13 @@
         <v>302</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>19</v>
@@ -3019,7 +3031,7 @@
         <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J55" s="1">
         <v>303</v>
@@ -3033,13 +3045,13 @@
         <v>303</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>22</v>
@@ -3048,7 +3060,7 @@
         <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J56" s="1">
         <v>304</v>
@@ -3062,13 +3074,13 @@
         <v>304</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>25</v>
@@ -3077,7 +3089,7 @@
         <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J57" s="1">
         <v>305</v>
@@ -3091,13 +3103,13 @@
         <v>305</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>28</v>
@@ -3106,7 +3118,7 @@
         <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J58" s="1">
         <v>306</v>
@@ -3120,13 +3132,13 @@
         <v>306</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>31</v>
@@ -3135,7 +3147,7 @@
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J59" s="1">
         <v>307</v>
@@ -3149,13 +3161,13 @@
         <v>307</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>34</v>
@@ -3164,7 +3176,7 @@
         <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J60" s="1">
         <v>308</v>
@@ -3178,13 +3190,13 @@
         <v>308</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>37</v>
@@ -3193,7 +3205,7 @@
         <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J61" s="1">
         <v>309</v>
@@ -3207,13 +3219,13 @@
         <v>309</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>40</v>
@@ -3222,7 +3234,7 @@
         <v>16</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J62" s="1">
         <v>310</v>
@@ -3236,13 +3248,13 @@
         <v>310</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>43</v>
@@ -3251,7 +3263,7 @@
         <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J63" s="1">
         <v>311</v>
@@ -3265,13 +3277,13 @@
         <v>311</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>46</v>
@@ -3280,7 +3292,7 @@
         <v>16</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J64" s="1">
         <v>312</v>
@@ -3294,13 +3306,13 @@
         <v>312</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>49</v>
@@ -3309,7 +3321,7 @@
         <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J65" s="1">
         <v>313</v>
@@ -3323,13 +3335,13 @@
         <v>313</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>52</v>
@@ -3338,7 +3350,7 @@
         <v>16</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J66" s="1">
         <v>314</v>
@@ -3352,13 +3364,13 @@
         <v>314</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>55</v>
@@ -3367,7 +3379,7 @@
         <v>16</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J67" s="1">
         <v>315</v>
@@ -3381,13 +3393,13 @@
         <v>315</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>58</v>
@@ -3396,7 +3408,7 @@
         <v>16</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J68" s="1">
         <v>316</v>
@@ -3410,13 +3422,13 @@
         <v>316</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>61</v>
@@ -3425,7 +3437,7 @@
         <v>16</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J69" s="1">
         <v>317</v>
@@ -3439,13 +3451,13 @@
         <v>317</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>64</v>
@@ -3454,7 +3466,7 @@
         <v>16</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J70" s="1">
         <v>318</v>
@@ -3468,13 +3480,13 @@
         <v>318</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>67</v>
@@ -3483,7 +3495,7 @@
         <v>16</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J71" s="1">
         <v>319</v>
@@ -3497,13 +3509,13 @@
         <v>319</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>70</v>
@@ -3512,7 +3524,7 @@
         <v>16</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J72" s="1">
         <v>320</v>
@@ -3526,13 +3538,13 @@
         <v>320</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>73</v>
@@ -3541,7 +3553,7 @@
         <v>16</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J73" s="1">
         <v>321</v>
@@ -3555,22 +3567,22 @@
         <v>321</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J74" s="1">
         <v>322</v>
@@ -3584,13 +3596,13 @@
         <v>401</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>15</v>
@@ -3599,7 +3611,7 @@
         <v>16</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J78" s="1">
         <v>402</v>
@@ -3613,13 +3625,13 @@
         <v>402</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>19</v>
@@ -3628,7 +3640,7 @@
         <v>16</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J79" s="1">
         <v>403</v>
@@ -3642,13 +3654,13 @@
         <v>403</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>22</v>
@@ -3657,7 +3669,7 @@
         <v>16</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J80" s="1">
         <v>404</v>
@@ -3671,13 +3683,13 @@
         <v>404</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>25</v>
@@ -3686,7 +3698,7 @@
         <v>16</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J81" s="1">
         <v>405</v>
@@ -3700,13 +3712,13 @@
         <v>405</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>28</v>
@@ -3715,7 +3727,7 @@
         <v>16</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J82" s="1">
         <v>406</v>
@@ -3729,13 +3741,13 @@
         <v>406</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>31</v>
@@ -3744,7 +3756,7 @@
         <v>16</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J83" s="1">
         <v>407</v>
@@ -3758,13 +3770,13 @@
         <v>407</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>34</v>
@@ -3773,7 +3785,7 @@
         <v>16</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J84" s="1">
         <v>408</v>
@@ -3787,13 +3799,13 @@
         <v>408</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>37</v>
@@ -3802,7 +3814,7 @@
         <v>16</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J85" s="1">
         <v>409</v>
@@ -3816,13 +3828,13 @@
         <v>409</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>40</v>
@@ -3831,7 +3843,7 @@
         <v>16</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J86" s="1">
         <v>410</v>
@@ -3845,13 +3857,13 @@
         <v>410</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>43</v>
@@ -3860,7 +3872,7 @@
         <v>16</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J87" s="1">
         <v>411</v>
@@ -3874,13 +3886,13 @@
         <v>411</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>46</v>
@@ -3889,7 +3901,7 @@
         <v>16</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J88" s="1">
         <v>412</v>
@@ -3903,13 +3915,13 @@
         <v>412</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>49</v>
@@ -3918,7 +3930,7 @@
         <v>16</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J89" s="1">
         <v>413</v>
@@ -3932,13 +3944,13 @@
         <v>413</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>52</v>
@@ -3947,7 +3959,7 @@
         <v>16</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J90" s="1">
         <v>414</v>
@@ -3961,13 +3973,13 @@
         <v>414</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>55</v>
@@ -3976,7 +3988,7 @@
         <v>16</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J91" s="1">
         <v>415</v>
@@ -3990,13 +4002,13 @@
         <v>415</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>58</v>
@@ -4005,7 +4017,7 @@
         <v>16</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J92" s="1">
         <v>416</v>
@@ -4019,13 +4031,13 @@
         <v>416</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>61</v>
@@ -4034,7 +4046,7 @@
         <v>16</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J93" s="1">
         <v>417</v>
@@ -4048,13 +4060,13 @@
         <v>417</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>64</v>
@@ -4063,7 +4075,7 @@
         <v>16</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J94" s="1">
         <v>418</v>
@@ -4077,13 +4089,13 @@
         <v>418</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>67</v>
@@ -4092,7 +4104,7 @@
         <v>16</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J95" s="1">
         <v>419</v>
@@ -4106,13 +4118,13 @@
         <v>419</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>70</v>
@@ -4121,7 +4133,7 @@
         <v>16</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J96" s="1">
         <v>420</v>
@@ -4135,13 +4147,13 @@
         <v>420</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>73</v>
@@ -4150,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J97" s="1">
         <v>421</v>
@@ -4164,22 +4176,22 @@
         <v>421</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J98" s="1">
         <v>422</v>
@@ -4193,22 +4205,22 @@
         <v>501</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J101" s="1">
         <v>4011</v>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="221">
   <si>
     <t>Id</t>
   </si>
@@ -263,6 +263,15 @@
     <t>斗笠二二阶</t>
   </si>
   <si>
+    <t>122,4007</t>
+  </si>
+  <si>
+    <t>1,4200000</t>
+  </si>
+  <si>
+    <t>斗笠二三阶</t>
+  </si>
+  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -392,6 +401,12 @@
     <t>护盾二二阶</t>
   </si>
   <si>
+    <t>222,4007</t>
+  </si>
+  <si>
+    <t>护盾二三阶</t>
+  </si>
+  <si>
     <t>神符</t>
   </si>
   <si>
@@ -521,6 +536,12 @@
     <t>神符二二阶</t>
   </si>
   <si>
+    <t>322,4007</t>
+  </si>
+  <si>
+    <t>神符二三阶</t>
+  </si>
+  <si>
     <t>魔石</t>
   </si>
   <si>
@@ -648,6 +669,12 @@
   </si>
   <si>
     <t>魔石二二阶</t>
+  </si>
+  <si>
+    <t>422,4007</t>
+  </si>
+  <si>
+    <t>魔石二三阶</t>
   </si>
   <si>
     <t>其他</t>
@@ -1660,8 +1687,8 @@
   <sheetPr/>
   <dimension ref="C3:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2373,18 +2400,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="27" customHeight="1" spans="3:11">
+      <c r="C27" s="1">
+        <v>122</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="1">
+        <v>123</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="1">
         <v>201</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>15</v>
@@ -2393,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J30" s="1">
         <v>202</v>
@@ -2407,13 +2463,13 @@
         <v>202</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>19</v>
@@ -2422,7 +2478,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J31" s="1">
         <v>203</v>
@@ -2436,13 +2492,13 @@
         <v>203</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>22</v>
@@ -2451,7 +2507,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J32" s="1">
         <v>204</v>
@@ -2465,13 +2521,13 @@
         <v>204</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>25</v>
@@ -2480,7 +2536,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J33" s="1">
         <v>205</v>
@@ -2494,13 +2550,13 @@
         <v>205</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>28</v>
@@ -2509,7 +2565,7 @@
         <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J34" s="1">
         <v>206</v>
@@ -2523,13 +2579,13 @@
         <v>206</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>31</v>
@@ -2538,7 +2594,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J35" s="1">
         <v>207</v>
@@ -2552,13 +2608,13 @@
         <v>207</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>34</v>
@@ -2567,7 +2623,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J36" s="1">
         <v>208</v>
@@ -2581,13 +2637,13 @@
         <v>208</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>37</v>
@@ -2596,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J37" s="1">
         <v>209</v>
@@ -2610,13 +2666,13 @@
         <v>209</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>40</v>
@@ -2625,7 +2681,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J38" s="1">
         <v>210</v>
@@ -2639,13 +2695,13 @@
         <v>210</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>43</v>
@@ -2654,7 +2710,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J39" s="1">
         <v>211</v>
@@ -2668,13 +2724,13 @@
         <v>211</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>46</v>
@@ -2683,7 +2739,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J40" s="1">
         <v>212</v>
@@ -2697,13 +2753,13 @@
         <v>212</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>49</v>
@@ -2712,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J41" s="1">
         <v>213</v>
@@ -2726,13 +2782,13 @@
         <v>213</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>52</v>
@@ -2741,7 +2797,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J42" s="1">
         <v>214</v>
@@ -2755,13 +2811,13 @@
         <v>214</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>55</v>
@@ -2770,7 +2826,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J43" s="1">
         <v>215</v>
@@ -2784,13 +2840,13 @@
         <v>215</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>58</v>
@@ -2799,7 +2855,7 @@
         <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J44" s="1">
         <v>216</v>
@@ -2813,13 +2869,13 @@
         <v>216</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>61</v>
@@ -2828,7 +2884,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J45" s="1">
         <v>217</v>
@@ -2842,13 +2898,13 @@
         <v>217</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>64</v>
@@ -2857,7 +2913,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J46" s="1">
         <v>218</v>
@@ -2871,13 +2927,13 @@
         <v>218</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>67</v>
@@ -2886,7 +2942,7 @@
         <v>16</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J47" s="1">
         <v>219</v>
@@ -2900,13 +2956,13 @@
         <v>219</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>70</v>
@@ -2915,7 +2971,7 @@
         <v>16</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J48" s="1">
         <v>220</v>
@@ -2929,13 +2985,13 @@
         <v>220</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>73</v>
@@ -2944,7 +3000,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J49" s="1">
         <v>221</v>
@@ -2958,13 +3014,13 @@
         <v>221</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>76</v>
@@ -2973,12 +3029,41 @@
         <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J50" s="1">
         <v>222</v>
       </c>
       <c r="K50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:11">
+      <c r="C51" s="1">
+        <v>222</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" s="1">
+        <v>223</v>
+      </c>
+      <c r="K51" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2987,13 +3072,13 @@
         <v>301</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>15</v>
@@ -3002,7 +3087,7 @@
         <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J54" s="1">
         <v>302</v>
@@ -3016,13 +3101,13 @@
         <v>302</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>19</v>
@@ -3031,7 +3116,7 @@
         <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J55" s="1">
         <v>303</v>
@@ -3045,13 +3130,13 @@
         <v>303</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>22</v>
@@ -3060,7 +3145,7 @@
         <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J56" s="1">
         <v>304</v>
@@ -3074,13 +3159,13 @@
         <v>304</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>25</v>
@@ -3089,7 +3174,7 @@
         <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J57" s="1">
         <v>305</v>
@@ -3103,13 +3188,13 @@
         <v>305</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>28</v>
@@ -3118,7 +3203,7 @@
         <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J58" s="1">
         <v>306</v>
@@ -3132,13 +3217,13 @@
         <v>306</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>31</v>
@@ -3147,7 +3232,7 @@
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J59" s="1">
         <v>307</v>
@@ -3161,13 +3246,13 @@
         <v>307</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>34</v>
@@ -3176,7 +3261,7 @@
         <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J60" s="1">
         <v>308</v>
@@ -3190,13 +3275,13 @@
         <v>308</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>37</v>
@@ -3205,7 +3290,7 @@
         <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J61" s="1">
         <v>309</v>
@@ -3219,13 +3304,13 @@
         <v>309</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>40</v>
@@ -3234,7 +3319,7 @@
         <v>16</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J62" s="1">
         <v>310</v>
@@ -3248,13 +3333,13 @@
         <v>310</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>43</v>
@@ -3263,7 +3348,7 @@
         <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J63" s="1">
         <v>311</v>
@@ -3277,13 +3362,13 @@
         <v>311</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>46</v>
@@ -3292,7 +3377,7 @@
         <v>16</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J64" s="1">
         <v>312</v>
@@ -3306,13 +3391,13 @@
         <v>312</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>49</v>
@@ -3321,7 +3406,7 @@
         <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J65" s="1">
         <v>313</v>
@@ -3335,13 +3420,13 @@
         <v>313</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>52</v>
@@ -3350,7 +3435,7 @@
         <v>16</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J66" s="1">
         <v>314</v>
@@ -3364,13 +3449,13 @@
         <v>314</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>55</v>
@@ -3379,7 +3464,7 @@
         <v>16</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J67" s="1">
         <v>315</v>
@@ -3393,13 +3478,13 @@
         <v>315</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>58</v>
@@ -3408,7 +3493,7 @@
         <v>16</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J68" s="1">
         <v>316</v>
@@ -3422,13 +3507,13 @@
         <v>316</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>61</v>
@@ -3437,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J69" s="1">
         <v>317</v>
@@ -3451,13 +3536,13 @@
         <v>317</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>64</v>
@@ -3466,7 +3551,7 @@
         <v>16</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J70" s="1">
         <v>318</v>
@@ -3480,13 +3565,13 @@
         <v>318</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>67</v>
@@ -3495,7 +3580,7 @@
         <v>16</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J71" s="1">
         <v>319</v>
@@ -3509,13 +3594,13 @@
         <v>319</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>70</v>
@@ -3524,7 +3609,7 @@
         <v>16</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="J72" s="1">
         <v>320</v>
@@ -3538,13 +3623,13 @@
         <v>320</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>73</v>
@@ -3553,7 +3638,7 @@
         <v>16</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J73" s="1">
         <v>321</v>
@@ -3567,13 +3652,13 @@
         <v>321</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>76</v>
@@ -3582,12 +3667,41 @@
         <v>16</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J74" s="1">
         <v>322</v>
       </c>
       <c r="K74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:11">
+      <c r="C75" s="1">
+        <v>322</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J75" s="1">
+        <v>323</v>
+      </c>
+      <c r="K75" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3596,13 +3710,13 @@
         <v>401</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>15</v>
@@ -3611,7 +3725,7 @@
         <v>16</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="J78" s="1">
         <v>402</v>
@@ -3625,13 +3739,13 @@
         <v>402</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>19</v>
@@ -3640,7 +3754,7 @@
         <v>16</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J79" s="1">
         <v>403</v>
@@ -3654,13 +3768,13 @@
         <v>403</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>22</v>
@@ -3669,7 +3783,7 @@
         <v>16</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J80" s="1">
         <v>404</v>
@@ -3683,13 +3797,13 @@
         <v>404</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>25</v>
@@ -3698,7 +3812,7 @@
         <v>16</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J81" s="1">
         <v>405</v>
@@ -3712,13 +3826,13 @@
         <v>405</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>28</v>
@@ -3727,7 +3841,7 @@
         <v>16</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J82" s="1">
         <v>406</v>
@@ -3741,13 +3855,13 @@
         <v>406</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>31</v>
@@ -3756,7 +3870,7 @@
         <v>16</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J83" s="1">
         <v>407</v>
@@ -3770,13 +3884,13 @@
         <v>407</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>34</v>
@@ -3785,7 +3899,7 @@
         <v>16</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J84" s="1">
         <v>408</v>
@@ -3799,13 +3913,13 @@
         <v>408</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>37</v>
@@ -3814,7 +3928,7 @@
         <v>16</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J85" s="1">
         <v>409</v>
@@ -3828,13 +3942,13 @@
         <v>409</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>40</v>
@@ -3843,7 +3957,7 @@
         <v>16</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J86" s="1">
         <v>410</v>
@@ -3857,13 +3971,13 @@
         <v>410</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>43</v>
@@ -3872,7 +3986,7 @@
         <v>16</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J87" s="1">
         <v>411</v>
@@ -3886,13 +4000,13 @@
         <v>411</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>46</v>
@@ -3901,7 +4015,7 @@
         <v>16</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J88" s="1">
         <v>412</v>
@@ -3915,13 +4029,13 @@
         <v>412</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>49</v>
@@ -3930,7 +4044,7 @@
         <v>16</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J89" s="1">
         <v>413</v>
@@ -3944,13 +4058,13 @@
         <v>413</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>52</v>
@@ -3959,7 +4073,7 @@
         <v>16</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="J90" s="1">
         <v>414</v>
@@ -3973,13 +4087,13 @@
         <v>414</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>55</v>
@@ -3988,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J91" s="1">
         <v>415</v>
@@ -4002,13 +4116,13 @@
         <v>415</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>58</v>
@@ -4017,7 +4131,7 @@
         <v>16</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J92" s="1">
         <v>416</v>
@@ -4031,13 +4145,13 @@
         <v>416</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>61</v>
@@ -4046,7 +4160,7 @@
         <v>16</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J93" s="1">
         <v>417</v>
@@ -4060,13 +4174,13 @@
         <v>417</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>64</v>
@@ -4075,7 +4189,7 @@
         <v>16</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J94" s="1">
         <v>418</v>
@@ -4089,13 +4203,13 @@
         <v>418</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>67</v>
@@ -4104,7 +4218,7 @@
         <v>16</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J95" s="1">
         <v>419</v>
@@ -4118,13 +4232,13 @@
         <v>419</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>70</v>
@@ -4133,7 +4247,7 @@
         <v>16</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="J96" s="1">
         <v>420</v>
@@ -4147,13 +4261,13 @@
         <v>420</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>73</v>
@@ -4162,7 +4276,7 @@
         <v>16</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J97" s="1">
         <v>421</v>
@@ -4176,13 +4290,13 @@
         <v>421</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>76</v>
@@ -4191,12 +4305,41 @@
         <v>16</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J98" s="1">
         <v>422</v>
       </c>
       <c r="K98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:11">
+      <c r="C99" s="1">
+        <v>422</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J99" s="1">
+        <v>423</v>
+      </c>
+      <c r="K99" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4205,22 +4348,22 @@
         <v>501</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="J101" s="1">
         <v>4011</v>
@@ -4231,7 +4374,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 F3 G3 H3 E4 F4 G4 H4 E5 F5 G5 H5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3:H3 F4:H4 F5:H5 E4:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,E3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/CompositeConfig.xlsx
+++ b/Excel/CompositeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="230">
   <si>
     <t>Id</t>
   </si>
@@ -272,6 +272,15 @@
     <t>斗笠二三阶</t>
   </si>
   <si>
+    <t>123,4007</t>
+  </si>
+  <si>
+    <t>1,8400000</t>
+  </si>
+  <si>
+    <t>斗笠二四阶</t>
+  </si>
+  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -407,6 +416,12 @@
     <t>护盾二三阶</t>
   </si>
   <si>
+    <t>223,4007</t>
+  </si>
+  <si>
+    <t>护盾二四阶</t>
+  </si>
+  <si>
     <t>神符</t>
   </si>
   <si>
@@ -542,6 +557,12 @@
     <t>神符二三阶</t>
   </si>
   <si>
+    <t>323,4007</t>
+  </si>
+  <si>
+    <t>神符二四阶</t>
+  </si>
+  <si>
     <t>魔石</t>
   </si>
   <si>
@@ -675,6 +696,12 @@
   </si>
   <si>
     <t>魔石二三阶</t>
+  </si>
+  <si>
+    <t>423,4007</t>
+  </si>
+  <si>
+    <t>魔石二四阶</t>
   </si>
   <si>
     <t>其他</t>
@@ -1685,10 +1712,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K101"/>
+  <dimension ref="C3:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2429,18 +2456,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28" customHeight="1" spans="3:11">
+      <c r="C28" s="1">
+        <v>123</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="1">
+        <v>124</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="1">
         <v>201</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>15</v>
@@ -2449,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J30" s="1">
         <v>202</v>
@@ -2463,13 +2519,13 @@
         <v>202</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>19</v>
@@ -2478,7 +2534,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J31" s="1">
         <v>203</v>
@@ -2492,13 +2548,13 @@
         <v>203</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>22</v>
@@ -2507,7 +2563,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J32" s="1">
         <v>204</v>
@@ -2521,13 +2577,13 @@
         <v>204</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>25</v>
@@ -2536,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J33" s="1">
         <v>205</v>
@@ -2550,13 +2606,13 @@
         <v>205</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>28</v>
@@ -2565,7 +2621,7 @@
         <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J34" s="1">
         <v>206</v>
@@ -2579,13 +2635,13 @@
         <v>206</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>31</v>
@@ -2594,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J35" s="1">
         <v>207</v>
@@ -2608,13 +2664,13 @@
         <v>207</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>34</v>
@@ -2623,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J36" s="1">
         <v>208</v>
@@ -2637,13 +2693,13 @@
         <v>208</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>37</v>
@@ -2652,7 +2708,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J37" s="1">
         <v>209</v>
@@ -2666,13 +2722,13 @@
         <v>209</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>40</v>
@@ -2681,7 +2737,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J38" s="1">
         <v>210</v>
@@ -2695,13 +2751,13 @@
         <v>210</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>43</v>
@@ -2710,7 +2766,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J39" s="1">
         <v>211</v>
@@ -2724,13 +2780,13 @@
         <v>211</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>46</v>
@@ -2739,7 +2795,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J40" s="1">
         <v>212</v>
@@ -2753,13 +2809,13 @@
         <v>212</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>49</v>
@@ -2768,7 +2824,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J41" s="1">
         <v>213</v>
@@ -2782,13 +2838,13 @@
         <v>213</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>52</v>
@@ -2797,7 +2853,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J42" s="1">
         <v>214</v>
@@ -2811,13 +2867,13 @@
         <v>214</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>55</v>
@@ -2826,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J43" s="1">
         <v>215</v>
@@ -2840,13 +2896,13 @@
         <v>215</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>58</v>
@@ -2855,7 +2911,7 @@
         <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J44" s="1">
         <v>216</v>
@@ -2869,13 +2925,13 @@
         <v>216</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>61</v>
@@ -2884,7 +2940,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J45" s="1">
         <v>217</v>
@@ -2898,13 +2954,13 @@
         <v>217</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>64</v>
@@ -2913,7 +2969,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J46" s="1">
         <v>218</v>
@@ -2927,13 +2983,13 @@
         <v>218</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>67</v>
@@ -2942,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J47" s="1">
         <v>219</v>
@@ -2956,13 +3012,13 @@
         <v>219</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>70</v>
@@ -2971,7 +3027,7 @@
         <v>16</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J48" s="1">
         <v>220</v>
@@ -2985,13 +3041,13 @@
         <v>220</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>73</v>
@@ -3000,7 +3056,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J49" s="1">
         <v>221</v>
@@ -3014,13 +3070,13 @@
         <v>221</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>76</v>
@@ -3029,7 +3085,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J50" s="1">
         <v>222</v>
@@ -3043,13 +3099,13 @@
         <v>222</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>79</v>
@@ -3058,12 +3114,41 @@
         <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J51" s="1">
         <v>223</v>
       </c>
       <c r="K51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:11">
+      <c r="C52" s="1">
+        <v>223</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J52" s="1">
+        <v>224</v>
+      </c>
+      <c r="K52" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3072,13 +3157,13 @@
         <v>301</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>15</v>
@@ -3087,7 +3172,7 @@
         <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J54" s="1">
         <v>302</v>
@@ -3101,13 +3186,13 @@
         <v>302</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>19</v>
@@ -3116,7 +3201,7 @@
         <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J55" s="1">
         <v>303</v>
@@ -3130,13 +3215,13 @@
         <v>303</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>22</v>
@@ -3145,7 +3230,7 @@
         <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J56" s="1">
         <v>304</v>
@@ -3159,13 +3244,13 @@
         <v>304</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>25</v>
@@ -3174,7 +3259,7 @@
         <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J57" s="1">
         <v>305</v>
@@ -3188,13 +3273,13 @@
         <v>305</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>28</v>
@@ -3203,7 +3288,7 @@
         <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J58" s="1">
         <v>306</v>
@@ -3217,13 +3302,13 @@
         <v>306</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>31</v>
@@ -3232,7 +3317,7 @@
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J59" s="1">
         <v>307</v>
@@ -3246,13 +3331,13 @@
         <v>307</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>34</v>
@@ -3261,7 +3346,7 @@
         <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J60" s="1">
         <v>308</v>
@@ -3275,13 +3360,13 @@
         <v>308</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>37</v>
@@ -3290,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J61" s="1">
         <v>309</v>
@@ -3304,13 +3389,13 @@
         <v>309</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>40</v>
@@ -3319,7 +3404,7 @@
         <v>16</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J62" s="1">
         <v>310</v>
@@ -3333,13 +3418,13 @@
         <v>310</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>43</v>
@@ -3348,7 +3433,7 @@
         <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J63" s="1">
         <v>311</v>
@@ -3362,13 +3447,13 @@
         <v>311</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>46</v>
@@ -3377,7 +3462,7 @@
         <v>16</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J64" s="1">
         <v>312</v>
@@ -3391,13 +3476,13 @@
         <v>312</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>49</v>
@@ -3406,7 +3491,7 @@
         <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J65" s="1">
         <v>313</v>
@@ -3420,13 +3505,13 @@
         <v>313</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>52</v>
@@ -3435,7 +3520,7 @@
         <v>16</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="J66" s="1">
         <v>314</v>
@@ -3449,13 +3534,13 @@
         <v>314</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>55</v>
@@ -3464,7 +3549,7 @@
         <v>16</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J67" s="1">
         <v>315</v>
@@ -3478,13 +3563,13 @@
         <v>315</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>58</v>
@@ -3493,7 +3578,7 @@
         <v>16</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J68" s="1">
         <v>316</v>
@@ -3507,13 +3592,13 @@
         <v>316</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>61</v>
@@ -3522,7 +3607,7 @@
         <v>16</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J69" s="1">
         <v>317</v>
@@ -3536,13 +3621,13 @@
         <v>317</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>64</v>
@@ -3551,7 +3636,7 @@
         <v>16</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J70" s="1">
         <v>318</v>
@@ -3565,13 +3650,13 @@
         <v>318</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>67</v>
@@ -3580,7 +3665,7 @@
         <v>16</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J71" s="1">
         <v>319</v>
@@ -3594,13 +3679,13 @@
         <v>319</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>70</v>
@@ -3609,7 +3694,7 @@
         <v>16</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J72" s="1">
         <v>320</v>
@@ -3623,13 +3708,13 @@
         <v>320</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>73</v>
@@ -3638,7 +3723,7 @@
         <v>16</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J73" s="1">
         <v>321</v>
@@ -3652,13 +3737,13 @@
         <v>321</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>76</v>
@@ -3667,7 +3752,7 @@
         <v>16</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J74" s="1">
         <v>322</v>
@@ -3681,13 +3766,13 @@
         <v>322</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>79</v>
@@ -3696,12 +3781,41 @@
         <v>16</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="J75" s="1">
         <v>323</v>
       </c>
       <c r="K75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:11">
+      <c r="C76" s="1">
+        <v>323</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J76" s="1">
+        <v>324</v>
+      </c>
+      <c r="K76" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3710,13 +3824,13 @@
         <v>401</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>15</v>
@@ -3725,7 +3839,7 @@
         <v>16</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="J78" s="1">
         <v>402</v>
@@ -3739,13 +3853,13 @@
         <v>402</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>19</v>
@@ -3754,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J79" s="1">
         <v>403</v>
@@ -3768,13 +3882,13 @@
         <v>403</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>22</v>
@@ -3783,7 +3897,7 @@
         <v>16</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J80" s="1">
         <v>404</v>
@@ -3797,13 +3911,13 @@
         <v>404</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>25</v>
@@ -3812,7 +3926,7 @@
         <v>16</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J81" s="1">
         <v>405</v>
@@ -3826,13 +3940,13 @@
         <v>405</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>28</v>
@@ -3841,7 +3955,7 @@
         <v>16</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J82" s="1">
         <v>406</v>
@@ -3855,13 +3969,13 @@
         <v>406</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>31</v>
@@ -3870,7 +3984,7 @@
         <v>16</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J83" s="1">
         <v>407</v>
@@ -3884,13 +3998,13 @@
         <v>407</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>34</v>
@@ -3899,7 +4013,7 @@
         <v>16</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J84" s="1">
         <v>408</v>
@@ -3913,13 +4027,13 @@
         <v>408</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>37</v>
@@ -3928,7 +4042,7 @@
         <v>16</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="J85" s="1">
         <v>409</v>
@@ -3942,13 +4056,13 @@
         <v>409</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>40</v>
@@ -3957,7 +4071,7 @@
         <v>16</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="J86" s="1">
         <v>410</v>
@@ -3971,13 +4085,13 @@
         <v>410</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>43</v>
@@ -3986,7 +4100,7 @@
         <v>16</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J87" s="1">
         <v>411</v>
@@ -4000,13 +4114,13 @@
         <v>411</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>46</v>
@@ -4015,7 +4129,7 @@
         <v>16</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J88" s="1">
         <v>412</v>
@@ -4029,13 +4143,13 @@
         <v>412</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>49</v>
@@ -4044,7 +4158,7 @@
         <v>16</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J89" s="1">
         <v>413</v>
@@ -4058,13 +4172,13 @@
         <v>413</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>52</v>
@@ -4073,7 +4187,7 @@
         <v>16</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J90" s="1">
         <v>414</v>
@@ -4087,13 +4201,13 @@
         <v>414</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>55</v>
@@ -4102,7 +4216,7 @@
         <v>16</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="J91" s="1">
         <v>415</v>
@@ -4116,13 +4230,13 @@
         <v>415</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>58</v>
@@ -4131,7 +4245,7 @@
         <v>16</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="J92" s="1">
         <v>416</v>
@@ -4145,13 +4259,13 @@
         <v>416</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>61</v>
@@ -4160,7 +4274,7 @@
         <v>16</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J93" s="1">
         <v>417</v>
@@ -4174,13 +4288,13 @@
         <v>417</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>64</v>
@@ -4189,7 +4303,7 @@
         <v>16</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J94" s="1">
         <v>418</v>
@@ -4203,13 +4317,13 @@
         <v>418</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>67</v>
@@ -4218,7 +4332,7 @@
         <v>16</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="J95" s="1">
         <v>419</v>
@@ -4232,13 +4346,13 @@
         <v>419</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>70</v>
@@ -4247,7 +4361,7 @@
         <v>16</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="J96" s="1">
         <v>420</v>
@@ -4261,13 +4375,13 @@
         <v>420</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>73</v>
@@ -4276,7 +4390,7 @@
         <v>16</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="J97" s="1">
         <v>421</v>
@@ -4290,13 +4404,13 @@
         <v>421</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>76</v>
@@ -4305,7 +4419,7 @@
         <v>16</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J98" s="1">
         <v>422</v>
@@ -4319,13 +4433,13 @@
         <v>422</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>79</v>
@@ -4334,7 +4448,7 @@
         <v>16</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="J99" s="1">
         <v>423</v>
@@ -4343,38 +4457,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="3:11">
-      <c r="C101" s="1">
+    <row r="100" customHeight="1" spans="3:11">
+      <c r="C100" s="1">
+        <v>423</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J100" s="1">
+        <v>424</v>
+      </c>
+      <c r="K100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:11">
+      <c r="C102" s="1">
         <v>501</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J101" s="1">
+      <c r="D102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J102" s="1">
         <v>4011</v>
       </c>
-      <c r="K101" s="1">
+      <c r="K102" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3:H3 F4:H4 F5:H5 E4:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3:H5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,E3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
